--- a/tests/shinytest/test-data/passes_everything.xlsx
+++ b/tests/shinytest/test-data/passes_everything.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_projects\dfe-published-data-qa\tests\testthat\otherData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\r-projects\dfe-published-data-qa\tests\shinytest\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9E5172-ECDE-47DA-9F63-614567F17D83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B66E3C4-47A0-47CC-A2C4-B9039A9B312F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="passes_everything" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>E12000003</t>
-  </si>
-  <si>
-    <t>Yorkshire and the Humber</t>
   </si>
   <si>
     <t>E12000004</t>
@@ -273,11 +270,14 @@
   <si>
     <t>Stockton-on-Tees</t>
   </si>
+  <si>
+    <t>Yorkshire and The Humber</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1111,10 +1111,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1635,7 +1637,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
         <v>32</v>
@@ -1685,7 +1687,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -1735,7 +1737,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
         <v>26</v>
@@ -1782,10 +1784,10 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
         <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
       </c>
       <c r="M14" t="s">
         <v>32</v>
@@ -1832,10 +1834,10 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -1882,10 +1884,10 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
       </c>
       <c r="M16" t="s">
         <v>26</v>
@@ -1932,10 +1934,10 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
         <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
       </c>
       <c r="M17" t="s">
         <v>32</v>
@@ -1982,10 +1984,10 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
         <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
       </c>
       <c r="M18" t="s">
         <v>26</v>
@@ -2032,10 +2034,10 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
         <v>40</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
       </c>
       <c r="M19" t="s">
         <v>26</v>
@@ -2082,10 +2084,10 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
         <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
       </c>
       <c r="M20" t="s">
         <v>32</v>
@@ -2132,10 +2134,10 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
         <v>42</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
@@ -2182,10 +2184,10 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
         <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
@@ -2232,10 +2234,10 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
         <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
       </c>
       <c r="M23" t="s">
         <v>32</v>
@@ -2282,10 +2284,10 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
         <v>44</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
@@ -2332,10 +2334,10 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
         <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
@@ -2382,10 +2384,10 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
         <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
@@ -2432,10 +2434,10 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
         <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -2482,10 +2484,10 @@
         <v>24</v>
       </c>
       <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
         <v>46</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -2532,10 +2534,10 @@
         <v>24</v>
       </c>
       <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
         <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>49</v>
       </c>
       <c r="M29" t="s">
         <v>32</v>
@@ -2582,10 +2584,10 @@
         <v>24</v>
       </c>
       <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
         <v>48</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -2632,10 +2634,10 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
         <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -2682,10 +2684,10 @@
         <v>24</v>
       </c>
       <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
         <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
       </c>
       <c r="M32" t="s">
         <v>32</v>
@@ -2732,10 +2734,10 @@
         <v>24</v>
       </c>
       <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
         <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
@@ -2782,10 +2784,10 @@
         <v>24</v>
       </c>
       <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
         <v>50</v>
-      </c>
-      <c r="G34" t="s">
-        <v>51</v>
       </c>
       <c r="M34" t="s">
         <v>26</v>
@@ -2823,7 +2825,7 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2832,19 +2834,19 @@
         <v>24</v>
       </c>
       <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
         <v>48</v>
-      </c>
-      <c r="G35" t="s">
-        <v>49</v>
       </c>
       <c r="H35">
         <v>204</v>
       </c>
       <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
         <v>53</v>
-      </c>
-      <c r="J35" t="s">
-        <v>54</v>
       </c>
       <c r="M35" t="s">
         <v>32</v>
@@ -2882,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2891,19 +2893,19 @@
         <v>24</v>
       </c>
       <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
         <v>48</v>
-      </c>
-      <c r="G36" t="s">
-        <v>49</v>
       </c>
       <c r="H36">
         <v>204</v>
       </c>
       <c r="I36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
         <v>53</v>
-      </c>
-      <c r="J36" t="s">
-        <v>54</v>
       </c>
       <c r="M36" t="s">
         <v>26</v>
@@ -2941,7 +2943,7 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2950,19 +2952,19 @@
         <v>24</v>
       </c>
       <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
         <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
       </c>
       <c r="H37">
         <v>204</v>
       </c>
       <c r="I37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" t="s">
         <v>53</v>
-      </c>
-      <c r="J37" t="s">
-        <v>54</v>
       </c>
       <c r="M37" t="s">
         <v>26</v>
@@ -3000,7 +3002,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -3009,19 +3011,19 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
         <v>48</v>
-      </c>
-      <c r="G38" t="s">
-        <v>49</v>
       </c>
       <c r="H38">
         <v>208</v>
       </c>
       <c r="I38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" t="s">
         <v>55</v>
-      </c>
-      <c r="J38" t="s">
-        <v>56</v>
       </c>
       <c r="M38" t="s">
         <v>32</v>
@@ -3059,7 +3061,7 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -3068,19 +3070,19 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
         <v>48</v>
-      </c>
-      <c r="G39" t="s">
-        <v>49</v>
       </c>
       <c r="H39">
         <v>208</v>
       </c>
       <c r="I39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" t="s">
         <v>55</v>
-      </c>
-      <c r="J39" t="s">
-        <v>56</v>
       </c>
       <c r="M39" t="s">
         <v>26</v>
@@ -3118,7 +3120,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -3127,19 +3129,19 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
         <v>48</v>
-      </c>
-      <c r="G40" t="s">
-        <v>49</v>
       </c>
       <c r="H40">
         <v>208</v>
       </c>
       <c r="I40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
         <v>55</v>
-      </c>
-      <c r="J40" t="s">
-        <v>56</v>
       </c>
       <c r="M40" t="s">
         <v>26</v>
@@ -3177,7 +3179,7 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3186,19 +3188,19 @@
         <v>24</v>
       </c>
       <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s">
         <v>50</v>
-      </c>
-      <c r="G41" t="s">
-        <v>51</v>
       </c>
       <c r="H41">
         <v>303</v>
       </c>
       <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" t="s">
         <v>57</v>
-      </c>
-      <c r="J41" t="s">
-        <v>58</v>
       </c>
       <c r="M41" t="s">
         <v>32</v>
@@ -3236,7 +3238,7 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -3245,19 +3247,19 @@
         <v>24</v>
       </c>
       <c r="F42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
         <v>50</v>
-      </c>
-      <c r="G42" t="s">
-        <v>51</v>
       </c>
       <c r="H42">
         <v>303</v>
       </c>
       <c r="I42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
         <v>57</v>
-      </c>
-      <c r="J42" t="s">
-        <v>58</v>
       </c>
       <c r="M42" t="s">
         <v>26</v>
@@ -3295,7 +3297,7 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -3304,19 +3306,19 @@
         <v>24</v>
       </c>
       <c r="F43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s">
         <v>50</v>
-      </c>
-      <c r="G43" t="s">
-        <v>51</v>
       </c>
       <c r="H43">
         <v>303</v>
       </c>
       <c r="I43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" t="s">
         <v>57</v>
-      </c>
-      <c r="J43" t="s">
-        <v>58</v>
       </c>
       <c r="M43" t="s">
         <v>26</v>
@@ -3354,7 +3356,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -3363,19 +3365,19 @@
         <v>24</v>
       </c>
       <c r="F44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
         <v>50</v>
-      </c>
-      <c r="G44" t="s">
-        <v>51</v>
       </c>
       <c r="H44">
         <v>310</v>
       </c>
       <c r="I44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" t="s">
         <v>59</v>
-      </c>
-      <c r="J44" t="s">
-        <v>60</v>
       </c>
       <c r="M44" t="s">
         <v>32</v>
@@ -3413,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -3422,19 +3424,19 @@
         <v>24</v>
       </c>
       <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
         <v>50</v>
-      </c>
-      <c r="G45" t="s">
-        <v>51</v>
       </c>
       <c r="H45">
         <v>310</v>
       </c>
       <c r="I45" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" t="s">
         <v>59</v>
-      </c>
-      <c r="J45" t="s">
-        <v>60</v>
       </c>
       <c r="M45" t="s">
         <v>26</v>
@@ -3472,7 +3474,7 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -3481,19 +3483,19 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
         <v>50</v>
-      </c>
-      <c r="G46" t="s">
-        <v>51</v>
       </c>
       <c r="H46">
         <v>310</v>
       </c>
       <c r="I46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" t="s">
         <v>59</v>
-      </c>
-      <c r="J46" t="s">
-        <v>60</v>
       </c>
       <c r="M46" t="s">
         <v>26</v>
@@ -3531,7 +3533,7 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -3540,19 +3542,19 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
         <v>50</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
       </c>
       <c r="H47">
         <v>317</v>
       </c>
       <c r="I47" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" t="s">
         <v>61</v>
-      </c>
-      <c r="J47" t="s">
-        <v>62</v>
       </c>
       <c r="M47" t="s">
         <v>32</v>
@@ -3590,7 +3592,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3599,19 +3601,19 @@
         <v>24</v>
       </c>
       <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
         <v>50</v>
-      </c>
-      <c r="G48" t="s">
-        <v>51</v>
       </c>
       <c r="H48">
         <v>317</v>
       </c>
       <c r="I48" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" t="s">
         <v>61</v>
-      </c>
-      <c r="J48" t="s">
-        <v>62</v>
       </c>
       <c r="M48" t="s">
         <v>26</v>
@@ -3649,7 +3651,7 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3658,19 +3660,19 @@
         <v>24</v>
       </c>
       <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
         <v>50</v>
-      </c>
-      <c r="G49" t="s">
-        <v>51</v>
       </c>
       <c r="H49">
         <v>317</v>
       </c>
       <c r="I49" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" t="s">
         <v>61</v>
-      </c>
-      <c r="J49" t="s">
-        <v>62</v>
       </c>
       <c r="M49" t="s">
         <v>26</v>
@@ -3708,7 +3710,7 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3717,19 +3719,19 @@
         <v>24</v>
       </c>
       <c r="F50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" t="s">
         <v>40</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
       </c>
       <c r="H50">
         <v>335</v>
       </c>
       <c r="I50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" t="s">
         <v>63</v>
-      </c>
-      <c r="J50" t="s">
-        <v>64</v>
       </c>
       <c r="M50" t="s">
         <v>32</v>
@@ -3767,7 +3769,7 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3776,19 +3778,19 @@
         <v>24</v>
       </c>
       <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
         <v>40</v>
-      </c>
-      <c r="G51" t="s">
-        <v>41</v>
       </c>
       <c r="H51">
         <v>335</v>
       </c>
       <c r="I51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" t="s">
         <v>63</v>
-      </c>
-      <c r="J51" t="s">
-        <v>64</v>
       </c>
       <c r="M51" t="s">
         <v>26</v>
@@ -3826,7 +3828,7 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3835,19 +3837,19 @@
         <v>24</v>
       </c>
       <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
         <v>40</v>
-      </c>
-      <c r="G52" t="s">
-        <v>41</v>
       </c>
       <c r="H52">
         <v>335</v>
       </c>
       <c r="I52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" t="s">
         <v>63</v>
-      </c>
-      <c r="J52" t="s">
-        <v>64</v>
       </c>
       <c r="M52" t="s">
         <v>26</v>
@@ -3885,7 +3887,7 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3903,10 +3905,10 @@
         <v>342</v>
       </c>
       <c r="I53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" t="s">
         <v>65</v>
-      </c>
-      <c r="J53" t="s">
-        <v>66</v>
       </c>
       <c r="M53" t="s">
         <v>32</v>
@@ -3944,7 +3946,7 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3962,10 +3964,10 @@
         <v>342</v>
       </c>
       <c r="I54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" t="s">
         <v>65</v>
-      </c>
-      <c r="J54" t="s">
-        <v>66</v>
       </c>
       <c r="M54" t="s">
         <v>26</v>
@@ -4003,7 +4005,7 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -4021,10 +4023,10 @@
         <v>342</v>
       </c>
       <c r="I55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" t="s">
         <v>65</v>
-      </c>
-      <c r="J55" t="s">
-        <v>66</v>
       </c>
       <c r="M55" t="s">
         <v>26</v>
@@ -4062,7 +4064,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -4080,10 +4082,10 @@
         <v>390</v>
       </c>
       <c r="I56" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" t="s">
         <v>67</v>
-      </c>
-      <c r="J56" t="s">
-        <v>68</v>
       </c>
       <c r="M56" t="s">
         <v>32</v>
@@ -4121,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -4139,10 +4141,10 @@
         <v>390</v>
       </c>
       <c r="I57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" t="s">
         <v>67</v>
-      </c>
-      <c r="J57" t="s">
-        <v>68</v>
       </c>
       <c r="M57" t="s">
         <v>26</v>
@@ -4180,7 +4182,7 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -4198,10 +4200,10 @@
         <v>390</v>
       </c>
       <c r="I58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J58" t="s">
         <v>67</v>
-      </c>
-      <c r="J58" t="s">
-        <v>68</v>
       </c>
       <c r="M58" t="s">
         <v>26</v>
@@ -4239,7 +4241,7 @@
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -4251,16 +4253,16 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H59">
         <v>812</v>
       </c>
       <c r="I59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" t="s">
         <v>69</v>
-      </c>
-      <c r="J59" t="s">
-        <v>70</v>
       </c>
       <c r="M59" t="s">
         <v>32</v>
@@ -4298,7 +4300,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -4310,16 +4312,16 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H60">
         <v>812</v>
       </c>
       <c r="I60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J60" t="s">
         <v>69</v>
-      </c>
-      <c r="J60" t="s">
-        <v>70</v>
       </c>
       <c r="M60" t="s">
         <v>26</v>
@@ -4357,7 +4359,7 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -4369,16 +4371,16 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H61">
         <v>812</v>
       </c>
       <c r="I61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" t="s">
         <v>69</v>
-      </c>
-      <c r="J61" t="s">
-        <v>70</v>
       </c>
       <c r="M61" t="s">
         <v>26</v>
@@ -4416,7 +4418,7 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -4425,19 +4427,19 @@
         <v>24</v>
       </c>
       <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
         <v>38</v>
-      </c>
-      <c r="G62" t="s">
-        <v>39</v>
       </c>
       <c r="H62">
         <v>830</v>
       </c>
       <c r="I62" t="s">
+        <v>70</v>
+      </c>
+      <c r="J62" t="s">
         <v>71</v>
-      </c>
-      <c r="J62" t="s">
-        <v>72</v>
       </c>
       <c r="M62" t="s">
         <v>32</v>
@@ -4475,7 +4477,7 @@
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -4484,19 +4486,19 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
         <v>38</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
       </c>
       <c r="H63">
         <v>830</v>
       </c>
       <c r="I63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J63" t="s">
         <v>71</v>
-      </c>
-      <c r="J63" t="s">
-        <v>72</v>
       </c>
       <c r="M63" t="s">
         <v>26</v>
@@ -4534,7 +4536,7 @@
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -4543,19 +4545,19 @@
         <v>24</v>
       </c>
       <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
         <v>38</v>
-      </c>
-      <c r="G64" t="s">
-        <v>39</v>
       </c>
       <c r="H64">
         <v>830</v>
       </c>
       <c r="I64" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" t="s">
         <v>71</v>
-      </c>
-      <c r="J64" t="s">
-        <v>72</v>
       </c>
       <c r="M64" t="s">
         <v>26</v>
@@ -4593,7 +4595,7 @@
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -4602,19 +4604,19 @@
         <v>24</v>
       </c>
       <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
         <v>44</v>
-      </c>
-      <c r="G65" t="s">
-        <v>45</v>
       </c>
       <c r="H65">
         <v>870</v>
       </c>
       <c r="I65" t="s">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s">
         <v>73</v>
-      </c>
-      <c r="J65" t="s">
-        <v>74</v>
       </c>
       <c r="M65" t="s">
         <v>32</v>
@@ -4652,7 +4654,7 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -4661,19 +4663,19 @@
         <v>24</v>
       </c>
       <c r="F66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s">
         <v>44</v>
-      </c>
-      <c r="G66" t="s">
-        <v>45</v>
       </c>
       <c r="H66">
         <v>870</v>
       </c>
       <c r="I66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s">
         <v>73</v>
-      </c>
-      <c r="J66" t="s">
-        <v>74</v>
       </c>
       <c r="M66" t="s">
         <v>26</v>
@@ -4711,7 +4713,7 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -4720,19 +4722,19 @@
         <v>24</v>
       </c>
       <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
         <v>44</v>
-      </c>
-      <c r="G67" t="s">
-        <v>45</v>
       </c>
       <c r="H67">
         <v>870</v>
       </c>
       <c r="I67" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s">
         <v>73</v>
-      </c>
-      <c r="J67" t="s">
-        <v>74</v>
       </c>
       <c r="M67" t="s">
         <v>26</v>
@@ -4770,7 +4772,7 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4779,19 +4781,19 @@
         <v>24</v>
       </c>
       <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
         <v>42</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
       </c>
       <c r="H68">
         <v>881</v>
       </c>
       <c r="I68" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s">
         <v>75</v>
-      </c>
-      <c r="J68" t="s">
-        <v>76</v>
       </c>
       <c r="M68" t="s">
         <v>32</v>
@@ -4829,7 +4831,7 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4838,19 +4840,19 @@
         <v>24</v>
       </c>
       <c r="F69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s">
         <v>42</v>
-      </c>
-      <c r="G69" t="s">
-        <v>43</v>
       </c>
       <c r="H69">
         <v>881</v>
       </c>
       <c r="I69" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s">
         <v>75</v>
-      </c>
-      <c r="J69" t="s">
-        <v>76</v>
       </c>
       <c r="M69" t="s">
         <v>26</v>
@@ -4888,7 +4890,7 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4897,19 +4899,19 @@
         <v>24</v>
       </c>
       <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
         <v>42</v>
-      </c>
-      <c r="G70" t="s">
-        <v>43</v>
       </c>
       <c r="H70">
         <v>881</v>
       </c>
       <c r="I70" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s">
         <v>75</v>
-      </c>
-      <c r="J70" t="s">
-        <v>76</v>
       </c>
       <c r="M70" t="s">
         <v>26</v>
@@ -4947,7 +4949,7 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4965,10 +4967,10 @@
         <v>895</v>
       </c>
       <c r="I71" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s">
         <v>77</v>
-      </c>
-      <c r="J71" t="s">
-        <v>78</v>
       </c>
       <c r="M71" t="s">
         <v>32</v>
@@ -5006,7 +5008,7 @@
         <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -5024,10 +5026,10 @@
         <v>895</v>
       </c>
       <c r="I72" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s">
         <v>77</v>
-      </c>
-      <c r="J72" t="s">
-        <v>78</v>
       </c>
       <c r="M72" t="s">
         <v>26</v>
@@ -5065,7 +5067,7 @@
         <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -5083,10 +5085,10 @@
         <v>895</v>
       </c>
       <c r="I73" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s">
         <v>77</v>
-      </c>
-      <c r="J73" t="s">
-        <v>78</v>
       </c>
       <c r="M73" t="s">
         <v>26</v>
@@ -5124,7 +5126,7 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -5133,19 +5135,19 @@
         <v>24</v>
       </c>
       <c r="F74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" t="s">
         <v>46</v>
-      </c>
-      <c r="G74" t="s">
-        <v>47</v>
       </c>
       <c r="H74">
         <v>933</v>
       </c>
       <c r="I74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s">
         <v>79</v>
-      </c>
-      <c r="J74" t="s">
-        <v>80</v>
       </c>
       <c r="M74" t="s">
         <v>32</v>
@@ -5183,7 +5185,7 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -5192,19 +5194,19 @@
         <v>24</v>
       </c>
       <c r="F75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" t="s">
         <v>46</v>
-      </c>
-      <c r="G75" t="s">
-        <v>47</v>
       </c>
       <c r="H75">
         <v>933</v>
       </c>
       <c r="I75" t="s">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s">
         <v>79</v>
-      </c>
-      <c r="J75" t="s">
-        <v>80</v>
       </c>
       <c r="M75" t="s">
         <v>26</v>
@@ -5242,7 +5244,7 @@
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -5251,19 +5253,19 @@
         <v>24</v>
       </c>
       <c r="F76" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" t="s">
         <v>46</v>
-      </c>
-      <c r="G76" t="s">
-        <v>47</v>
       </c>
       <c r="H76">
         <v>933</v>
       </c>
       <c r="I76" t="s">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s">
         <v>79</v>
-      </c>
-      <c r="J76" t="s">
-        <v>80</v>
       </c>
       <c r="M76" t="s">
         <v>26</v>
@@ -5745,7 +5747,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M86" t="s">
         <v>32</v>
@@ -5795,7 +5797,7 @@
         <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M87" t="s">
         <v>26</v>
@@ -5845,7 +5847,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M88" t="s">
         <v>26</v>
@@ -5892,10 +5894,10 @@
         <v>24</v>
       </c>
       <c r="F89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
         <v>38</v>
-      </c>
-      <c r="G89" t="s">
-        <v>39</v>
       </c>
       <c r="M89" t="s">
         <v>32</v>
@@ -5942,10 +5944,10 @@
         <v>24</v>
       </c>
       <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
         <v>38</v>
-      </c>
-      <c r="G90" t="s">
-        <v>39</v>
       </c>
       <c r="M90" t="s">
         <v>26</v>
@@ -5992,10 +5994,10 @@
         <v>24</v>
       </c>
       <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
         <v>38</v>
-      </c>
-      <c r="G91" t="s">
-        <v>39</v>
       </c>
       <c r="M91" t="s">
         <v>26</v>
@@ -6042,10 +6044,10 @@
         <v>24</v>
       </c>
       <c r="F92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" t="s">
         <v>40</v>
-      </c>
-      <c r="G92" t="s">
-        <v>41</v>
       </c>
       <c r="M92" t="s">
         <v>32</v>
@@ -6092,10 +6094,10 @@
         <v>24</v>
       </c>
       <c r="F93" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" t="s">
         <v>40</v>
-      </c>
-      <c r="G93" t="s">
-        <v>41</v>
       </c>
       <c r="M93" t="s">
         <v>26</v>
@@ -6142,10 +6144,10 @@
         <v>24</v>
       </c>
       <c r="F94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
         <v>40</v>
-      </c>
-      <c r="G94" t="s">
-        <v>41</v>
       </c>
       <c r="M94" t="s">
         <v>26</v>
@@ -6192,10 +6194,10 @@
         <v>24</v>
       </c>
       <c r="F95" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" t="s">
         <v>42</v>
-      </c>
-      <c r="G95" t="s">
-        <v>43</v>
       </c>
       <c r="M95" t="s">
         <v>32</v>
@@ -6242,10 +6244,10 @@
         <v>24</v>
       </c>
       <c r="F96" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" t="s">
         <v>42</v>
-      </c>
-      <c r="G96" t="s">
-        <v>43</v>
       </c>
       <c r="M96" t="s">
         <v>26</v>
@@ -6292,10 +6294,10 @@
         <v>24</v>
       </c>
       <c r="F97" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" t="s">
         <v>42</v>
-      </c>
-      <c r="G97" t="s">
-        <v>43</v>
       </c>
       <c r="M97" t="s">
         <v>26</v>
@@ -6342,10 +6344,10 @@
         <v>24</v>
       </c>
       <c r="F98" t="s">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s">
         <v>44</v>
-      </c>
-      <c r="G98" t="s">
-        <v>45</v>
       </c>
       <c r="M98" t="s">
         <v>32</v>
@@ -6392,10 +6394,10 @@
         <v>24</v>
       </c>
       <c r="F99" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" t="s">
         <v>44</v>
-      </c>
-      <c r="G99" t="s">
-        <v>45</v>
       </c>
       <c r="M99" t="s">
         <v>26</v>
@@ -6442,10 +6444,10 @@
         <v>24</v>
       </c>
       <c r="F100" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s">
         <v>44</v>
-      </c>
-      <c r="G100" t="s">
-        <v>45</v>
       </c>
       <c r="M100" t="s">
         <v>26</v>
@@ -6492,10 +6494,10 @@
         <v>24</v>
       </c>
       <c r="F101" t="s">
+        <v>45</v>
+      </c>
+      <c r="G101" t="s">
         <v>46</v>
-      </c>
-      <c r="G101" t="s">
-        <v>47</v>
       </c>
       <c r="M101" t="s">
         <v>32</v>
@@ -6542,10 +6544,10 @@
         <v>24</v>
       </c>
       <c r="F102" t="s">
+        <v>45</v>
+      </c>
+      <c r="G102" t="s">
         <v>46</v>
-      </c>
-      <c r="G102" t="s">
-        <v>47</v>
       </c>
       <c r="M102" t="s">
         <v>26</v>
@@ -6592,10 +6594,10 @@
         <v>24</v>
       </c>
       <c r="F103" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" t="s">
         <v>46</v>
-      </c>
-      <c r="G103" t="s">
-        <v>47</v>
       </c>
       <c r="M103" t="s">
         <v>26</v>
@@ -6642,10 +6644,10 @@
         <v>24</v>
       </c>
       <c r="F104" t="s">
+        <v>47</v>
+      </c>
+      <c r="G104" t="s">
         <v>48</v>
-      </c>
-      <c r="G104" t="s">
-        <v>49</v>
       </c>
       <c r="M104" t="s">
         <v>32</v>
@@ -6692,10 +6694,10 @@
         <v>24</v>
       </c>
       <c r="F105" t="s">
+        <v>47</v>
+      </c>
+      <c r="G105" t="s">
         <v>48</v>
-      </c>
-      <c r="G105" t="s">
-        <v>49</v>
       </c>
       <c r="M105" t="s">
         <v>26</v>
@@ -6742,10 +6744,10 @@
         <v>24</v>
       </c>
       <c r="F106" t="s">
+        <v>47</v>
+      </c>
+      <c r="G106" t="s">
         <v>48</v>
-      </c>
-      <c r="G106" t="s">
-        <v>49</v>
       </c>
       <c r="M106" t="s">
         <v>26</v>
@@ -6792,10 +6794,10 @@
         <v>24</v>
       </c>
       <c r="F107" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" t="s">
         <v>50</v>
-      </c>
-      <c r="G107" t="s">
-        <v>51</v>
       </c>
       <c r="M107" t="s">
         <v>32</v>
@@ -6842,10 +6844,10 @@
         <v>24</v>
       </c>
       <c r="F108" t="s">
+        <v>49</v>
+      </c>
+      <c r="G108" t="s">
         <v>50</v>
-      </c>
-      <c r="G108" t="s">
-        <v>51</v>
       </c>
       <c r="M108" t="s">
         <v>26</v>
@@ -6892,10 +6894,10 @@
         <v>24</v>
       </c>
       <c r="F109" t="s">
+        <v>49</v>
+      </c>
+      <c r="G109" t="s">
         <v>50</v>
-      </c>
-      <c r="G109" t="s">
-        <v>51</v>
       </c>
       <c r="M109" t="s">
         <v>26</v>
@@ -6933,7 +6935,7 @@
         <v>21</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -6942,19 +6944,19 @@
         <v>24</v>
       </c>
       <c r="F110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G110" t="s">
         <v>48</v>
-      </c>
-      <c r="G110" t="s">
-        <v>49</v>
       </c>
       <c r="H110">
         <v>204</v>
       </c>
       <c r="I110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s">
         <v>53</v>
-      </c>
-      <c r="J110" t="s">
-        <v>54</v>
       </c>
       <c r="M110" t="s">
         <v>32</v>
@@ -6992,7 +6994,7 @@
         <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -7001,19 +7003,19 @@
         <v>24</v>
       </c>
       <c r="F111" t="s">
+        <v>47</v>
+      </c>
+      <c r="G111" t="s">
         <v>48</v>
-      </c>
-      <c r="G111" t="s">
-        <v>49</v>
       </c>
       <c r="H111">
         <v>204</v>
       </c>
       <c r="I111" t="s">
+        <v>52</v>
+      </c>
+      <c r="J111" t="s">
         <v>53</v>
-      </c>
-      <c r="J111" t="s">
-        <v>54</v>
       </c>
       <c r="M111" t="s">
         <v>26</v>
@@ -7051,7 +7053,7 @@
         <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -7060,19 +7062,19 @@
         <v>24</v>
       </c>
       <c r="F112" t="s">
+        <v>47</v>
+      </c>
+      <c r="G112" t="s">
         <v>48</v>
-      </c>
-      <c r="G112" t="s">
-        <v>49</v>
       </c>
       <c r="H112">
         <v>204</v>
       </c>
       <c r="I112" t="s">
+        <v>52</v>
+      </c>
+      <c r="J112" t="s">
         <v>53</v>
-      </c>
-      <c r="J112" t="s">
-        <v>54</v>
       </c>
       <c r="M112" t="s">
         <v>26</v>
@@ -7110,7 +7112,7 @@
         <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -7119,19 +7121,19 @@
         <v>24</v>
       </c>
       <c r="F113" t="s">
+        <v>47</v>
+      </c>
+      <c r="G113" t="s">
         <v>48</v>
-      </c>
-      <c r="G113" t="s">
-        <v>49</v>
       </c>
       <c r="H113">
         <v>208</v>
       </c>
       <c r="I113" t="s">
+        <v>54</v>
+      </c>
+      <c r="J113" t="s">
         <v>55</v>
-      </c>
-      <c r="J113" t="s">
-        <v>56</v>
       </c>
       <c r="M113" t="s">
         <v>32</v>
@@ -7169,7 +7171,7 @@
         <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -7178,19 +7180,19 @@
         <v>24</v>
       </c>
       <c r="F114" t="s">
+        <v>47</v>
+      </c>
+      <c r="G114" t="s">
         <v>48</v>
-      </c>
-      <c r="G114" t="s">
-        <v>49</v>
       </c>
       <c r="H114">
         <v>208</v>
       </c>
       <c r="I114" t="s">
+        <v>54</v>
+      </c>
+      <c r="J114" t="s">
         <v>55</v>
-      </c>
-      <c r="J114" t="s">
-        <v>56</v>
       </c>
       <c r="M114" t="s">
         <v>26</v>
@@ -7228,7 +7230,7 @@
         <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -7237,19 +7239,19 @@
         <v>24</v>
       </c>
       <c r="F115" t="s">
+        <v>47</v>
+      </c>
+      <c r="G115" t="s">
         <v>48</v>
-      </c>
-      <c r="G115" t="s">
-        <v>49</v>
       </c>
       <c r="H115">
         <v>208</v>
       </c>
       <c r="I115" t="s">
+        <v>54</v>
+      </c>
+      <c r="J115" t="s">
         <v>55</v>
-      </c>
-      <c r="J115" t="s">
-        <v>56</v>
       </c>
       <c r="M115" t="s">
         <v>26</v>
@@ -7287,7 +7289,7 @@
         <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -7296,19 +7298,19 @@
         <v>24</v>
       </c>
       <c r="F116" t="s">
+        <v>49</v>
+      </c>
+      <c r="G116" t="s">
         <v>50</v>
-      </c>
-      <c r="G116" t="s">
-        <v>51</v>
       </c>
       <c r="H116">
         <v>303</v>
       </c>
       <c r="I116" t="s">
+        <v>56</v>
+      </c>
+      <c r="J116" t="s">
         <v>57</v>
-      </c>
-      <c r="J116" t="s">
-        <v>58</v>
       </c>
       <c r="M116" t="s">
         <v>32</v>
@@ -7346,7 +7348,7 @@
         <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -7355,19 +7357,19 @@
         <v>24</v>
       </c>
       <c r="F117" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" t="s">
         <v>50</v>
-      </c>
-      <c r="G117" t="s">
-        <v>51</v>
       </c>
       <c r="H117">
         <v>303</v>
       </c>
       <c r="I117" t="s">
+        <v>56</v>
+      </c>
+      <c r="J117" t="s">
         <v>57</v>
-      </c>
-      <c r="J117" t="s">
-        <v>58</v>
       </c>
       <c r="M117" t="s">
         <v>26</v>
@@ -7405,7 +7407,7 @@
         <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -7414,19 +7416,19 @@
         <v>24</v>
       </c>
       <c r="F118" t="s">
+        <v>49</v>
+      </c>
+      <c r="G118" t="s">
         <v>50</v>
-      </c>
-      <c r="G118" t="s">
-        <v>51</v>
       </c>
       <c r="H118">
         <v>303</v>
       </c>
       <c r="I118" t="s">
+        <v>56</v>
+      </c>
+      <c r="J118" t="s">
         <v>57</v>
-      </c>
-      <c r="J118" t="s">
-        <v>58</v>
       </c>
       <c r="M118" t="s">
         <v>26</v>
@@ -7464,7 +7466,7 @@
         <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -7473,19 +7475,19 @@
         <v>24</v>
       </c>
       <c r="F119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" t="s">
         <v>50</v>
-      </c>
-      <c r="G119" t="s">
-        <v>51</v>
       </c>
       <c r="H119">
         <v>310</v>
       </c>
       <c r="I119" t="s">
+        <v>58</v>
+      </c>
+      <c r="J119" t="s">
         <v>59</v>
-      </c>
-      <c r="J119" t="s">
-        <v>60</v>
       </c>
       <c r="M119" t="s">
         <v>32</v>
@@ -7523,7 +7525,7 @@
         <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -7532,19 +7534,19 @@
         <v>24</v>
       </c>
       <c r="F120" t="s">
+        <v>49</v>
+      </c>
+      <c r="G120" t="s">
         <v>50</v>
-      </c>
-      <c r="G120" t="s">
-        <v>51</v>
       </c>
       <c r="H120">
         <v>310</v>
       </c>
       <c r="I120" t="s">
+        <v>58</v>
+      </c>
+      <c r="J120" t="s">
         <v>59</v>
-      </c>
-      <c r="J120" t="s">
-        <v>60</v>
       </c>
       <c r="M120" t="s">
         <v>26</v>
@@ -7582,7 +7584,7 @@
         <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -7591,19 +7593,19 @@
         <v>24</v>
       </c>
       <c r="F121" t="s">
+        <v>49</v>
+      </c>
+      <c r="G121" t="s">
         <v>50</v>
-      </c>
-      <c r="G121" t="s">
-        <v>51</v>
       </c>
       <c r="H121">
         <v>310</v>
       </c>
       <c r="I121" t="s">
+        <v>58</v>
+      </c>
+      <c r="J121" t="s">
         <v>59</v>
-      </c>
-      <c r="J121" t="s">
-        <v>60</v>
       </c>
       <c r="M121" t="s">
         <v>26</v>
@@ -7641,7 +7643,7 @@
         <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -7650,19 +7652,19 @@
         <v>24</v>
       </c>
       <c r="F122" t="s">
+        <v>49</v>
+      </c>
+      <c r="G122" t="s">
         <v>50</v>
-      </c>
-      <c r="G122" t="s">
-        <v>51</v>
       </c>
       <c r="H122">
         <v>317</v>
       </c>
       <c r="I122" t="s">
+        <v>60</v>
+      </c>
+      <c r="J122" t="s">
         <v>61</v>
-      </c>
-      <c r="J122" t="s">
-        <v>62</v>
       </c>
       <c r="M122" t="s">
         <v>32</v>
@@ -7700,7 +7702,7 @@
         <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -7709,19 +7711,19 @@
         <v>24</v>
       </c>
       <c r="F123" t="s">
+        <v>49</v>
+      </c>
+      <c r="G123" t="s">
         <v>50</v>
-      </c>
-      <c r="G123" t="s">
-        <v>51</v>
       </c>
       <c r="H123">
         <v>317</v>
       </c>
       <c r="I123" t="s">
+        <v>60</v>
+      </c>
+      <c r="J123" t="s">
         <v>61</v>
-      </c>
-      <c r="J123" t="s">
-        <v>62</v>
       </c>
       <c r="M123" t="s">
         <v>26</v>
@@ -7759,7 +7761,7 @@
         <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -7768,19 +7770,19 @@
         <v>24</v>
       </c>
       <c r="F124" t="s">
+        <v>49</v>
+      </c>
+      <c r="G124" t="s">
         <v>50</v>
-      </c>
-      <c r="G124" t="s">
-        <v>51</v>
       </c>
       <c r="H124">
         <v>317</v>
       </c>
       <c r="I124" t="s">
+        <v>60</v>
+      </c>
+      <c r="J124" t="s">
         <v>61</v>
-      </c>
-      <c r="J124" t="s">
-        <v>62</v>
       </c>
       <c r="M124" t="s">
         <v>26</v>
@@ -7818,7 +7820,7 @@
         <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -7827,19 +7829,19 @@
         <v>24</v>
       </c>
       <c r="F125" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" t="s">
         <v>40</v>
-      </c>
-      <c r="G125" t="s">
-        <v>41</v>
       </c>
       <c r="H125">
         <v>335</v>
       </c>
       <c r="I125" t="s">
+        <v>62</v>
+      </c>
+      <c r="J125" t="s">
         <v>63</v>
-      </c>
-      <c r="J125" t="s">
-        <v>64</v>
       </c>
       <c r="M125" t="s">
         <v>32</v>
@@ -7877,7 +7879,7 @@
         <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -7886,19 +7888,19 @@
         <v>24</v>
       </c>
       <c r="F126" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" t="s">
         <v>40</v>
-      </c>
-      <c r="G126" t="s">
-        <v>41</v>
       </c>
       <c r="H126">
         <v>335</v>
       </c>
       <c r="I126" t="s">
+        <v>62</v>
+      </c>
+      <c r="J126" t="s">
         <v>63</v>
-      </c>
-      <c r="J126" t="s">
-        <v>64</v>
       </c>
       <c r="M126" t="s">
         <v>26</v>
@@ -7936,7 +7938,7 @@
         <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
@@ -7945,19 +7947,19 @@
         <v>24</v>
       </c>
       <c r="F127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" t="s">
         <v>40</v>
-      </c>
-      <c r="G127" t="s">
-        <v>41</v>
       </c>
       <c r="H127">
         <v>335</v>
       </c>
       <c r="I127" t="s">
+        <v>62</v>
+      </c>
+      <c r="J127" t="s">
         <v>63</v>
-      </c>
-      <c r="J127" t="s">
-        <v>64</v>
       </c>
       <c r="M127" t="s">
         <v>26</v>
@@ -7995,7 +7997,7 @@
         <v>21</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
@@ -8013,10 +8015,10 @@
         <v>342</v>
       </c>
       <c r="I128" t="s">
+        <v>64</v>
+      </c>
+      <c r="J128" t="s">
         <v>65</v>
-      </c>
-      <c r="J128" t="s">
-        <v>66</v>
       </c>
       <c r="M128" t="s">
         <v>32</v>
@@ -8054,7 +8056,7 @@
         <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -8072,10 +8074,10 @@
         <v>342</v>
       </c>
       <c r="I129" t="s">
+        <v>64</v>
+      </c>
+      <c r="J129" t="s">
         <v>65</v>
-      </c>
-      <c r="J129" t="s">
-        <v>66</v>
       </c>
       <c r="M129" t="s">
         <v>26</v>
@@ -8113,7 +8115,7 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -8131,10 +8133,10 @@
         <v>342</v>
       </c>
       <c r="I130" t="s">
+        <v>64</v>
+      </c>
+      <c r="J130" t="s">
         <v>65</v>
-      </c>
-      <c r="J130" t="s">
-        <v>66</v>
       </c>
       <c r="M130" t="s">
         <v>26</v>
@@ -8172,7 +8174,7 @@
         <v>21</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -8190,10 +8192,10 @@
         <v>390</v>
       </c>
       <c r="I131" t="s">
+        <v>66</v>
+      </c>
+      <c r="J131" t="s">
         <v>67</v>
-      </c>
-      <c r="J131" t="s">
-        <v>68</v>
       </c>
       <c r="M131" t="s">
         <v>32</v>
@@ -8231,7 +8233,7 @@
         <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -8249,10 +8251,10 @@
         <v>390</v>
       </c>
       <c r="I132" t="s">
+        <v>66</v>
+      </c>
+      <c r="J132" t="s">
         <v>67</v>
-      </c>
-      <c r="J132" t="s">
-        <v>68</v>
       </c>
       <c r="M132" t="s">
         <v>26</v>
@@ -8290,7 +8292,7 @@
         <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -8308,10 +8310,10 @@
         <v>390</v>
       </c>
       <c r="I133" t="s">
+        <v>66</v>
+      </c>
+      <c r="J133" t="s">
         <v>67</v>
-      </c>
-      <c r="J133" t="s">
-        <v>68</v>
       </c>
       <c r="M133" t="s">
         <v>26</v>
@@ -8349,7 +8351,7 @@
         <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -8361,16 +8363,16 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H134">
         <v>812</v>
       </c>
       <c r="I134" t="s">
+        <v>68</v>
+      </c>
+      <c r="J134" t="s">
         <v>69</v>
-      </c>
-      <c r="J134" t="s">
-        <v>70</v>
       </c>
       <c r="M134" t="s">
         <v>32</v>
@@ -8408,7 +8410,7 @@
         <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -8420,16 +8422,16 @@
         <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H135">
         <v>812</v>
       </c>
       <c r="I135" t="s">
+        <v>68</v>
+      </c>
+      <c r="J135" t="s">
         <v>69</v>
-      </c>
-      <c r="J135" t="s">
-        <v>70</v>
       </c>
       <c r="M135" t="s">
         <v>26</v>
@@ -8467,7 +8469,7 @@
         <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -8479,16 +8481,16 @@
         <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H136">
         <v>812</v>
       </c>
       <c r="I136" t="s">
+        <v>68</v>
+      </c>
+      <c r="J136" t="s">
         <v>69</v>
-      </c>
-      <c r="J136" t="s">
-        <v>70</v>
       </c>
       <c r="M136" t="s">
         <v>26</v>
@@ -8526,7 +8528,7 @@
         <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -8535,19 +8537,19 @@
         <v>24</v>
       </c>
       <c r="F137" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
         <v>38</v>
-      </c>
-      <c r="G137" t="s">
-        <v>39</v>
       </c>
       <c r="H137">
         <v>830</v>
       </c>
       <c r="I137" t="s">
+        <v>70</v>
+      </c>
+      <c r="J137" t="s">
         <v>71</v>
-      </c>
-      <c r="J137" t="s">
-        <v>72</v>
       </c>
       <c r="M137" t="s">
         <v>32</v>
@@ -8585,7 +8587,7 @@
         <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -8594,19 +8596,19 @@
         <v>24</v>
       </c>
       <c r="F138" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s">
         <v>38</v>
-      </c>
-      <c r="G138" t="s">
-        <v>39</v>
       </c>
       <c r="H138">
         <v>830</v>
       </c>
       <c r="I138" t="s">
+        <v>70</v>
+      </c>
+      <c r="J138" t="s">
         <v>71</v>
-      </c>
-      <c r="J138" t="s">
-        <v>72</v>
       </c>
       <c r="M138" t="s">
         <v>26</v>
@@ -8644,7 +8646,7 @@
         <v>21</v>
       </c>
       <c r="C139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -8653,19 +8655,19 @@
         <v>24</v>
       </c>
       <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
         <v>38</v>
-      </c>
-      <c r="G139" t="s">
-        <v>39</v>
       </c>
       <c r="H139">
         <v>830</v>
       </c>
       <c r="I139" t="s">
+        <v>70</v>
+      </c>
+      <c r="J139" t="s">
         <v>71</v>
-      </c>
-      <c r="J139" t="s">
-        <v>72</v>
       </c>
       <c r="M139" t="s">
         <v>26</v>
@@ -8703,7 +8705,7 @@
         <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -8712,19 +8714,19 @@
         <v>24</v>
       </c>
       <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" t="s">
         <v>44</v>
-      </c>
-      <c r="G140" t="s">
-        <v>45</v>
       </c>
       <c r="H140">
         <v>870</v>
       </c>
       <c r="I140" t="s">
+        <v>72</v>
+      </c>
+      <c r="J140" t="s">
         <v>73</v>
-      </c>
-      <c r="J140" t="s">
-        <v>74</v>
       </c>
       <c r="M140" t="s">
         <v>32</v>
@@ -8762,7 +8764,7 @@
         <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -8771,19 +8773,19 @@
         <v>24</v>
       </c>
       <c r="F141" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" t="s">
         <v>44</v>
-      </c>
-      <c r="G141" t="s">
-        <v>45</v>
       </c>
       <c r="H141">
         <v>870</v>
       </c>
       <c r="I141" t="s">
+        <v>72</v>
+      </c>
+      <c r="J141" t="s">
         <v>73</v>
-      </c>
-      <c r="J141" t="s">
-        <v>74</v>
       </c>
       <c r="M141" t="s">
         <v>26</v>
@@ -8821,7 +8823,7 @@
         <v>21</v>
       </c>
       <c r="C142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D142" t="s">
         <v>23</v>
@@ -8830,19 +8832,19 @@
         <v>24</v>
       </c>
       <c r="F142" t="s">
+        <v>43</v>
+      </c>
+      <c r="G142" t="s">
         <v>44</v>
-      </c>
-      <c r="G142" t="s">
-        <v>45</v>
       </c>
       <c r="H142">
         <v>870</v>
       </c>
       <c r="I142" t="s">
+        <v>72</v>
+      </c>
+      <c r="J142" t="s">
         <v>73</v>
-      </c>
-      <c r="J142" t="s">
-        <v>74</v>
       </c>
       <c r="M142" t="s">
         <v>26</v>
@@ -8880,7 +8882,7 @@
         <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -8889,19 +8891,19 @@
         <v>24</v>
       </c>
       <c r="F143" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143" t="s">
         <v>42</v>
-      </c>
-      <c r="G143" t="s">
-        <v>43</v>
       </c>
       <c r="H143">
         <v>881</v>
       </c>
       <c r="I143" t="s">
+        <v>74</v>
+      </c>
+      <c r="J143" t="s">
         <v>75</v>
-      </c>
-      <c r="J143" t="s">
-        <v>76</v>
       </c>
       <c r="M143" t="s">
         <v>32</v>
@@ -8939,7 +8941,7 @@
         <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -8948,19 +8950,19 @@
         <v>24</v>
       </c>
       <c r="F144" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" t="s">
         <v>42</v>
-      </c>
-      <c r="G144" t="s">
-        <v>43</v>
       </c>
       <c r="H144">
         <v>881</v>
       </c>
       <c r="I144" t="s">
+        <v>74</v>
+      </c>
+      <c r="J144" t="s">
         <v>75</v>
-      </c>
-      <c r="J144" t="s">
-        <v>76</v>
       </c>
       <c r="M144" t="s">
         <v>26</v>
@@ -8998,7 +9000,7 @@
         <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -9007,19 +9009,19 @@
         <v>24</v>
       </c>
       <c r="F145" t="s">
+        <v>41</v>
+      </c>
+      <c r="G145" t="s">
         <v>42</v>
-      </c>
-      <c r="G145" t="s">
-        <v>43</v>
       </c>
       <c r="H145">
         <v>881</v>
       </c>
       <c r="I145" t="s">
+        <v>74</v>
+      </c>
+      <c r="J145" t="s">
         <v>75</v>
-      </c>
-      <c r="J145" t="s">
-        <v>76</v>
       </c>
       <c r="M145" t="s">
         <v>26</v>
@@ -9057,7 +9059,7 @@
         <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -9075,10 +9077,10 @@
         <v>895</v>
       </c>
       <c r="I146" t="s">
+        <v>76</v>
+      </c>
+      <c r="J146" t="s">
         <v>77</v>
-      </c>
-      <c r="J146" t="s">
-        <v>78</v>
       </c>
       <c r="M146" t="s">
         <v>32</v>
@@ -9116,7 +9118,7 @@
         <v>21</v>
       </c>
       <c r="C147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
@@ -9134,10 +9136,10 @@
         <v>895</v>
       </c>
       <c r="I147" t="s">
+        <v>76</v>
+      </c>
+      <c r="J147" t="s">
         <v>77</v>
-      </c>
-      <c r="J147" t="s">
-        <v>78</v>
       </c>
       <c r="M147" t="s">
         <v>26</v>
@@ -9175,7 +9177,7 @@
         <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -9193,10 +9195,10 @@
         <v>895</v>
       </c>
       <c r="I148" t="s">
+        <v>76</v>
+      </c>
+      <c r="J148" t="s">
         <v>77</v>
-      </c>
-      <c r="J148" t="s">
-        <v>78</v>
       </c>
       <c r="M148" t="s">
         <v>26</v>
@@ -9234,7 +9236,7 @@
         <v>21</v>
       </c>
       <c r="C149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D149" t="s">
         <v>23</v>
@@ -9243,19 +9245,19 @@
         <v>24</v>
       </c>
       <c r="F149" t="s">
+        <v>45</v>
+      </c>
+      <c r="G149" t="s">
         <v>46</v>
-      </c>
-      <c r="G149" t="s">
-        <v>47</v>
       </c>
       <c r="H149">
         <v>933</v>
       </c>
       <c r="I149" t="s">
+        <v>78</v>
+      </c>
+      <c r="J149" t="s">
         <v>79</v>
-      </c>
-      <c r="J149" t="s">
-        <v>80</v>
       </c>
       <c r="M149" t="s">
         <v>32</v>
@@ -9293,7 +9295,7 @@
         <v>21</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D150" t="s">
         <v>23</v>
@@ -9302,19 +9304,19 @@
         <v>24</v>
       </c>
       <c r="F150" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
         <v>46</v>
-      </c>
-      <c r="G150" t="s">
-        <v>47</v>
       </c>
       <c r="H150">
         <v>933</v>
       </c>
       <c r="I150" t="s">
+        <v>78</v>
+      </c>
+      <c r="J150" t="s">
         <v>79</v>
-      </c>
-      <c r="J150" t="s">
-        <v>80</v>
       </c>
       <c r="M150" t="s">
         <v>26</v>
@@ -9352,7 +9354,7 @@
         <v>21</v>
       </c>
       <c r="C151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
@@ -9361,19 +9363,19 @@
         <v>24</v>
       </c>
       <c r="F151" t="s">
+        <v>45</v>
+      </c>
+      <c r="G151" t="s">
         <v>46</v>
-      </c>
-      <c r="G151" t="s">
-        <v>47</v>
       </c>
       <c r="H151">
         <v>933</v>
       </c>
       <c r="I151" t="s">
+        <v>78</v>
+      </c>
+      <c r="J151" t="s">
         <v>79</v>
-      </c>
-      <c r="J151" t="s">
-        <v>80</v>
       </c>
       <c r="M151" t="s">
         <v>26</v>
@@ -9855,7 +9857,7 @@
         <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M161" t="s">
         <v>32</v>
@@ -9905,7 +9907,7 @@
         <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M162" t="s">
         <v>26</v>
@@ -9955,7 +9957,7 @@
         <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M163" t="s">
         <v>26</v>
@@ -10002,10 +10004,10 @@
         <v>24</v>
       </c>
       <c r="F164" t="s">
+        <v>37</v>
+      </c>
+      <c r="G164" t="s">
         <v>38</v>
-      </c>
-      <c r="G164" t="s">
-        <v>39</v>
       </c>
       <c r="M164" t="s">
         <v>32</v>
@@ -10052,10 +10054,10 @@
         <v>24</v>
       </c>
       <c r="F165" t="s">
+        <v>37</v>
+      </c>
+      <c r="G165" t="s">
         <v>38</v>
-      </c>
-      <c r="G165" t="s">
-        <v>39</v>
       </c>
       <c r="M165" t="s">
         <v>26</v>
@@ -10102,10 +10104,10 @@
         <v>24</v>
       </c>
       <c r="F166" t="s">
+        <v>37</v>
+      </c>
+      <c r="G166" t="s">
         <v>38</v>
-      </c>
-      <c r="G166" t="s">
-        <v>39</v>
       </c>
       <c r="M166" t="s">
         <v>26</v>
@@ -10152,10 +10154,10 @@
         <v>24</v>
       </c>
       <c r="F167" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" t="s">
         <v>40</v>
-      </c>
-      <c r="G167" t="s">
-        <v>41</v>
       </c>
       <c r="M167" t="s">
         <v>32</v>
@@ -10202,10 +10204,10 @@
         <v>24</v>
       </c>
       <c r="F168" t="s">
+        <v>39</v>
+      </c>
+      <c r="G168" t="s">
         <v>40</v>
-      </c>
-      <c r="G168" t="s">
-        <v>41</v>
       </c>
       <c r="M168" t="s">
         <v>26</v>
@@ -10252,10 +10254,10 @@
         <v>24</v>
       </c>
       <c r="F169" t="s">
+        <v>39</v>
+      </c>
+      <c r="G169" t="s">
         <v>40</v>
-      </c>
-      <c r="G169" t="s">
-        <v>41</v>
       </c>
       <c r="M169" t="s">
         <v>26</v>
@@ -10302,10 +10304,10 @@
         <v>24</v>
       </c>
       <c r="F170" t="s">
+        <v>41</v>
+      </c>
+      <c r="G170" t="s">
         <v>42</v>
-      </c>
-      <c r="G170" t="s">
-        <v>43</v>
       </c>
       <c r="M170" t="s">
         <v>32</v>
@@ -10352,10 +10354,10 @@
         <v>24</v>
       </c>
       <c r="F171" t="s">
+        <v>41</v>
+      </c>
+      <c r="G171" t="s">
         <v>42</v>
-      </c>
-      <c r="G171" t="s">
-        <v>43</v>
       </c>
       <c r="M171" t="s">
         <v>26</v>
@@ -10402,10 +10404,10 @@
         <v>24</v>
       </c>
       <c r="F172" t="s">
+        <v>41</v>
+      </c>
+      <c r="G172" t="s">
         <v>42</v>
-      </c>
-      <c r="G172" t="s">
-        <v>43</v>
       </c>
       <c r="M172" t="s">
         <v>26</v>
@@ -10452,10 +10454,10 @@
         <v>24</v>
       </c>
       <c r="F173" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" t="s">
         <v>44</v>
-      </c>
-      <c r="G173" t="s">
-        <v>45</v>
       </c>
       <c r="M173" t="s">
         <v>32</v>
@@ -10502,10 +10504,10 @@
         <v>24</v>
       </c>
       <c r="F174" t="s">
+        <v>43</v>
+      </c>
+      <c r="G174" t="s">
         <v>44</v>
-      </c>
-      <c r="G174" t="s">
-        <v>45</v>
       </c>
       <c r="M174" t="s">
         <v>26</v>
@@ -10552,10 +10554,10 @@
         <v>24</v>
       </c>
       <c r="F175" t="s">
+        <v>43</v>
+      </c>
+      <c r="G175" t="s">
         <v>44</v>
-      </c>
-      <c r="G175" t="s">
-        <v>45</v>
       </c>
       <c r="M175" t="s">
         <v>26</v>
@@ -10602,10 +10604,10 @@
         <v>24</v>
       </c>
       <c r="F176" t="s">
+        <v>45</v>
+      </c>
+      <c r="G176" t="s">
         <v>46</v>
-      </c>
-      <c r="G176" t="s">
-        <v>47</v>
       </c>
       <c r="M176" t="s">
         <v>32</v>
@@ -10652,10 +10654,10 @@
         <v>24</v>
       </c>
       <c r="F177" t="s">
+        <v>45</v>
+      </c>
+      <c r="G177" t="s">
         <v>46</v>
-      </c>
-      <c r="G177" t="s">
-        <v>47</v>
       </c>
       <c r="M177" t="s">
         <v>26</v>
@@ -10702,10 +10704,10 @@
         <v>24</v>
       </c>
       <c r="F178" t="s">
+        <v>45</v>
+      </c>
+      <c r="G178" t="s">
         <v>46</v>
-      </c>
-      <c r="G178" t="s">
-        <v>47</v>
       </c>
       <c r="M178" t="s">
         <v>26</v>
@@ -10752,10 +10754,10 @@
         <v>24</v>
       </c>
       <c r="F179" t="s">
+        <v>47</v>
+      </c>
+      <c r="G179" t="s">
         <v>48</v>
-      </c>
-      <c r="G179" t="s">
-        <v>49</v>
       </c>
       <c r="M179" t="s">
         <v>32</v>
@@ -10802,10 +10804,10 @@
         <v>24</v>
       </c>
       <c r="F180" t="s">
+        <v>47</v>
+      </c>
+      <c r="G180" t="s">
         <v>48</v>
-      </c>
-      <c r="G180" t="s">
-        <v>49</v>
       </c>
       <c r="M180" t="s">
         <v>26</v>
@@ -10852,10 +10854,10 @@
         <v>24</v>
       </c>
       <c r="F181" t="s">
+        <v>47</v>
+      </c>
+      <c r="G181" t="s">
         <v>48</v>
-      </c>
-      <c r="G181" t="s">
-        <v>49</v>
       </c>
       <c r="M181" t="s">
         <v>26</v>
@@ -10902,10 +10904,10 @@
         <v>24</v>
       </c>
       <c r="F182" t="s">
+        <v>49</v>
+      </c>
+      <c r="G182" t="s">
         <v>50</v>
-      </c>
-      <c r="G182" t="s">
-        <v>51</v>
       </c>
       <c r="M182" t="s">
         <v>32</v>
@@ -10952,10 +10954,10 @@
         <v>24</v>
       </c>
       <c r="F183" t="s">
+        <v>49</v>
+      </c>
+      <c r="G183" t="s">
         <v>50</v>
-      </c>
-      <c r="G183" t="s">
-        <v>51</v>
       </c>
       <c r="M183" t="s">
         <v>26</v>
@@ -11002,10 +11004,10 @@
         <v>24</v>
       </c>
       <c r="F184" t="s">
+        <v>49</v>
+      </c>
+      <c r="G184" t="s">
         <v>50</v>
-      </c>
-      <c r="G184" t="s">
-        <v>51</v>
       </c>
       <c r="M184" t="s">
         <v>26</v>
@@ -11043,7 +11045,7 @@
         <v>21</v>
       </c>
       <c r="C185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D185" t="s">
         <v>23</v>
@@ -11052,19 +11054,19 @@
         <v>24</v>
       </c>
       <c r="F185" t="s">
+        <v>47</v>
+      </c>
+      <c r="G185" t="s">
         <v>48</v>
-      </c>
-      <c r="G185" t="s">
-        <v>49</v>
       </c>
       <c r="H185">
         <v>204</v>
       </c>
       <c r="I185" t="s">
+        <v>52</v>
+      </c>
+      <c r="J185" t="s">
         <v>53</v>
-      </c>
-      <c r="J185" t="s">
-        <v>54</v>
       </c>
       <c r="M185" t="s">
         <v>32</v>
@@ -11102,7 +11104,7 @@
         <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D186" t="s">
         <v>23</v>
@@ -11111,19 +11113,19 @@
         <v>24</v>
       </c>
       <c r="F186" t="s">
+        <v>47</v>
+      </c>
+      <c r="G186" t="s">
         <v>48</v>
-      </c>
-      <c r="G186" t="s">
-        <v>49</v>
       </c>
       <c r="H186">
         <v>204</v>
       </c>
       <c r="I186" t="s">
+        <v>52</v>
+      </c>
+      <c r="J186" t="s">
         <v>53</v>
-      </c>
-      <c r="J186" t="s">
-        <v>54</v>
       </c>
       <c r="M186" t="s">
         <v>26</v>
@@ -11161,7 +11163,7 @@
         <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D187" t="s">
         <v>23</v>
@@ -11170,19 +11172,19 @@
         <v>24</v>
       </c>
       <c r="F187" t="s">
+        <v>47</v>
+      </c>
+      <c r="G187" t="s">
         <v>48</v>
-      </c>
-      <c r="G187" t="s">
-        <v>49</v>
       </c>
       <c r="H187">
         <v>204</v>
       </c>
       <c r="I187" t="s">
+        <v>52</v>
+      </c>
+      <c r="J187" t="s">
         <v>53</v>
-      </c>
-      <c r="J187" t="s">
-        <v>54</v>
       </c>
       <c r="M187" t="s">
         <v>26</v>
@@ -11220,7 +11222,7 @@
         <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D188" t="s">
         <v>23</v>
@@ -11229,19 +11231,19 @@
         <v>24</v>
       </c>
       <c r="F188" t="s">
+        <v>47</v>
+      </c>
+      <c r="G188" t="s">
         <v>48</v>
-      </c>
-      <c r="G188" t="s">
-        <v>49</v>
       </c>
       <c r="H188">
         <v>208</v>
       </c>
       <c r="I188" t="s">
+        <v>54</v>
+      </c>
+      <c r="J188" t="s">
         <v>55</v>
-      </c>
-      <c r="J188" t="s">
-        <v>56</v>
       </c>
       <c r="M188" t="s">
         <v>32</v>
@@ -11279,7 +11281,7 @@
         <v>21</v>
       </c>
       <c r="C189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D189" t="s">
         <v>23</v>
@@ -11288,19 +11290,19 @@
         <v>24</v>
       </c>
       <c r="F189" t="s">
+        <v>47</v>
+      </c>
+      <c r="G189" t="s">
         <v>48</v>
-      </c>
-      <c r="G189" t="s">
-        <v>49</v>
       </c>
       <c r="H189">
         <v>208</v>
       </c>
       <c r="I189" t="s">
+        <v>54</v>
+      </c>
+      <c r="J189" t="s">
         <v>55</v>
-      </c>
-      <c r="J189" t="s">
-        <v>56</v>
       </c>
       <c r="M189" t="s">
         <v>26</v>
@@ -11338,7 +11340,7 @@
         <v>21</v>
       </c>
       <c r="C190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D190" t="s">
         <v>23</v>
@@ -11347,19 +11349,19 @@
         <v>24</v>
       </c>
       <c r="F190" t="s">
+        <v>47</v>
+      </c>
+      <c r="G190" t="s">
         <v>48</v>
-      </c>
-      <c r="G190" t="s">
-        <v>49</v>
       </c>
       <c r="H190">
         <v>208</v>
       </c>
       <c r="I190" t="s">
+        <v>54</v>
+      </c>
+      <c r="J190" t="s">
         <v>55</v>
-      </c>
-      <c r="J190" t="s">
-        <v>56</v>
       </c>
       <c r="M190" t="s">
         <v>26</v>
@@ -11397,7 +11399,7 @@
         <v>21</v>
       </c>
       <c r="C191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D191" t="s">
         <v>23</v>
@@ -11406,19 +11408,19 @@
         <v>24</v>
       </c>
       <c r="F191" t="s">
+        <v>49</v>
+      </c>
+      <c r="G191" t="s">
         <v>50</v>
-      </c>
-      <c r="G191" t="s">
-        <v>51</v>
       </c>
       <c r="H191">
         <v>303</v>
       </c>
       <c r="I191" t="s">
+        <v>56</v>
+      </c>
+      <c r="J191" t="s">
         <v>57</v>
-      </c>
-      <c r="J191" t="s">
-        <v>58</v>
       </c>
       <c r="M191" t="s">
         <v>32</v>
@@ -11456,7 +11458,7 @@
         <v>21</v>
       </c>
       <c r="C192" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D192" t="s">
         <v>23</v>
@@ -11465,19 +11467,19 @@
         <v>24</v>
       </c>
       <c r="F192" t="s">
+        <v>49</v>
+      </c>
+      <c r="G192" t="s">
         <v>50</v>
-      </c>
-      <c r="G192" t="s">
-        <v>51</v>
       </c>
       <c r="H192">
         <v>303</v>
       </c>
       <c r="I192" t="s">
+        <v>56</v>
+      </c>
+      <c r="J192" t="s">
         <v>57</v>
-      </c>
-      <c r="J192" t="s">
-        <v>58</v>
       </c>
       <c r="M192" t="s">
         <v>26</v>
@@ -11515,7 +11517,7 @@
         <v>21</v>
       </c>
       <c r="C193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D193" t="s">
         <v>23</v>
@@ -11524,19 +11526,19 @@
         <v>24</v>
       </c>
       <c r="F193" t="s">
+        <v>49</v>
+      </c>
+      <c r="G193" t="s">
         <v>50</v>
-      </c>
-      <c r="G193" t="s">
-        <v>51</v>
       </c>
       <c r="H193">
         <v>303</v>
       </c>
       <c r="I193" t="s">
+        <v>56</v>
+      </c>
+      <c r="J193" t="s">
         <v>57</v>
-      </c>
-      <c r="J193" t="s">
-        <v>58</v>
       </c>
       <c r="M193" t="s">
         <v>26</v>
@@ -11574,7 +11576,7 @@
         <v>21</v>
       </c>
       <c r="C194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D194" t="s">
         <v>23</v>
@@ -11583,19 +11585,19 @@
         <v>24</v>
       </c>
       <c r="F194" t="s">
+        <v>49</v>
+      </c>
+      <c r="G194" t="s">
         <v>50</v>
-      </c>
-      <c r="G194" t="s">
-        <v>51</v>
       </c>
       <c r="H194">
         <v>310</v>
       </c>
       <c r="I194" t="s">
+        <v>58</v>
+      </c>
+      <c r="J194" t="s">
         <v>59</v>
-      </c>
-      <c r="J194" t="s">
-        <v>60</v>
       </c>
       <c r="M194" t="s">
         <v>32</v>
@@ -11633,7 +11635,7 @@
         <v>21</v>
       </c>
       <c r="C195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D195" t="s">
         <v>23</v>
@@ -11642,19 +11644,19 @@
         <v>24</v>
       </c>
       <c r="F195" t="s">
+        <v>49</v>
+      </c>
+      <c r="G195" t="s">
         <v>50</v>
-      </c>
-      <c r="G195" t="s">
-        <v>51</v>
       </c>
       <c r="H195">
         <v>310</v>
       </c>
       <c r="I195" t="s">
+        <v>58</v>
+      </c>
+      <c r="J195" t="s">
         <v>59</v>
-      </c>
-      <c r="J195" t="s">
-        <v>60</v>
       </c>
       <c r="M195" t="s">
         <v>26</v>
@@ -11692,7 +11694,7 @@
         <v>21</v>
       </c>
       <c r="C196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D196" t="s">
         <v>23</v>
@@ -11701,19 +11703,19 @@
         <v>24</v>
       </c>
       <c r="F196" t="s">
+        <v>49</v>
+      </c>
+      <c r="G196" t="s">
         <v>50</v>
-      </c>
-      <c r="G196" t="s">
-        <v>51</v>
       </c>
       <c r="H196">
         <v>310</v>
       </c>
       <c r="I196" t="s">
+        <v>58</v>
+      </c>
+      <c r="J196" t="s">
         <v>59</v>
-      </c>
-      <c r="J196" t="s">
-        <v>60</v>
       </c>
       <c r="M196" t="s">
         <v>26</v>
@@ -11751,7 +11753,7 @@
         <v>21</v>
       </c>
       <c r="C197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D197" t="s">
         <v>23</v>
@@ -11760,19 +11762,19 @@
         <v>24</v>
       </c>
       <c r="F197" t="s">
+        <v>49</v>
+      </c>
+      <c r="G197" t="s">
         <v>50</v>
-      </c>
-      <c r="G197" t="s">
-        <v>51</v>
       </c>
       <c r="H197">
         <v>317</v>
       </c>
       <c r="I197" t="s">
+        <v>60</v>
+      </c>
+      <c r="J197" t="s">
         <v>61</v>
-      </c>
-      <c r="J197" t="s">
-        <v>62</v>
       </c>
       <c r="M197" t="s">
         <v>32</v>
@@ -11810,7 +11812,7 @@
         <v>21</v>
       </c>
       <c r="C198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D198" t="s">
         <v>23</v>
@@ -11819,19 +11821,19 @@
         <v>24</v>
       </c>
       <c r="F198" t="s">
+        <v>49</v>
+      </c>
+      <c r="G198" t="s">
         <v>50</v>
-      </c>
-      <c r="G198" t="s">
-        <v>51</v>
       </c>
       <c r="H198">
         <v>317</v>
       </c>
       <c r="I198" t="s">
+        <v>60</v>
+      </c>
+      <c r="J198" t="s">
         <v>61</v>
-      </c>
-      <c r="J198" t="s">
-        <v>62</v>
       </c>
       <c r="M198" t="s">
         <v>26</v>
@@ -11869,7 +11871,7 @@
         <v>21</v>
       </c>
       <c r="C199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D199" t="s">
         <v>23</v>
@@ -11878,19 +11880,19 @@
         <v>24</v>
       </c>
       <c r="F199" t="s">
+        <v>49</v>
+      </c>
+      <c r="G199" t="s">
         <v>50</v>
-      </c>
-      <c r="G199" t="s">
-        <v>51</v>
       </c>
       <c r="H199">
         <v>317</v>
       </c>
       <c r="I199" t="s">
+        <v>60</v>
+      </c>
+      <c r="J199" t="s">
         <v>61</v>
-      </c>
-      <c r="J199" t="s">
-        <v>62</v>
       </c>
       <c r="M199" t="s">
         <v>26</v>
@@ -11928,7 +11930,7 @@
         <v>21</v>
       </c>
       <c r="C200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D200" t="s">
         <v>23</v>
@@ -11937,19 +11939,19 @@
         <v>24</v>
       </c>
       <c r="F200" t="s">
+        <v>39</v>
+      </c>
+      <c r="G200" t="s">
         <v>40</v>
-      </c>
-      <c r="G200" t="s">
-        <v>41</v>
       </c>
       <c r="H200">
         <v>335</v>
       </c>
       <c r="I200" t="s">
+        <v>62</v>
+      </c>
+      <c r="J200" t="s">
         <v>63</v>
-      </c>
-      <c r="J200" t="s">
-        <v>64</v>
       </c>
       <c r="M200" t="s">
         <v>32</v>
@@ -11987,7 +11989,7 @@
         <v>21</v>
       </c>
       <c r="C201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D201" t="s">
         <v>23</v>
@@ -11996,19 +11998,19 @@
         <v>24</v>
       </c>
       <c r="F201" t="s">
+        <v>39</v>
+      </c>
+      <c r="G201" t="s">
         <v>40</v>
-      </c>
-      <c r="G201" t="s">
-        <v>41</v>
       </c>
       <c r="H201">
         <v>335</v>
       </c>
       <c r="I201" t="s">
+        <v>62</v>
+      </c>
+      <c r="J201" t="s">
         <v>63</v>
-      </c>
-      <c r="J201" t="s">
-        <v>64</v>
       </c>
       <c r="M201" t="s">
         <v>26</v>
@@ -12046,7 +12048,7 @@
         <v>21</v>
       </c>
       <c r="C202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D202" t="s">
         <v>23</v>
@@ -12055,19 +12057,19 @@
         <v>24</v>
       </c>
       <c r="F202" t="s">
+        <v>39</v>
+      </c>
+      <c r="G202" t="s">
         <v>40</v>
-      </c>
-      <c r="G202" t="s">
-        <v>41</v>
       </c>
       <c r="H202">
         <v>335</v>
       </c>
       <c r="I202" t="s">
+        <v>62</v>
+      </c>
+      <c r="J202" t="s">
         <v>63</v>
-      </c>
-      <c r="J202" t="s">
-        <v>64</v>
       </c>
       <c r="M202" t="s">
         <v>26</v>
@@ -12105,7 +12107,7 @@
         <v>21</v>
       </c>
       <c r="C203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D203" t="s">
         <v>23</v>
@@ -12123,10 +12125,10 @@
         <v>342</v>
       </c>
       <c r="I203" t="s">
+        <v>64</v>
+      </c>
+      <c r="J203" t="s">
         <v>65</v>
-      </c>
-      <c r="J203" t="s">
-        <v>66</v>
       </c>
       <c r="M203" t="s">
         <v>32</v>
@@ -12164,7 +12166,7 @@
         <v>21</v>
       </c>
       <c r="C204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D204" t="s">
         <v>23</v>
@@ -12182,10 +12184,10 @@
         <v>342</v>
       </c>
       <c r="I204" t="s">
+        <v>64</v>
+      </c>
+      <c r="J204" t="s">
         <v>65</v>
-      </c>
-      <c r="J204" t="s">
-        <v>66</v>
       </c>
       <c r="M204" t="s">
         <v>26</v>
@@ -12223,7 +12225,7 @@
         <v>21</v>
       </c>
       <c r="C205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D205" t="s">
         <v>23</v>
@@ -12241,10 +12243,10 @@
         <v>342</v>
       </c>
       <c r="I205" t="s">
+        <v>64</v>
+      </c>
+      <c r="J205" t="s">
         <v>65</v>
-      </c>
-      <c r="J205" t="s">
-        <v>66</v>
       </c>
       <c r="M205" t="s">
         <v>26</v>
@@ -12282,7 +12284,7 @@
         <v>21</v>
       </c>
       <c r="C206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D206" t="s">
         <v>23</v>
@@ -12300,10 +12302,10 @@
         <v>390</v>
       </c>
       <c r="I206" t="s">
+        <v>66</v>
+      </c>
+      <c r="J206" t="s">
         <v>67</v>
-      </c>
-      <c r="J206" t="s">
-        <v>68</v>
       </c>
       <c r="M206" t="s">
         <v>32</v>
@@ -12341,7 +12343,7 @@
         <v>21</v>
       </c>
       <c r="C207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D207" t="s">
         <v>23</v>
@@ -12359,10 +12361,10 @@
         <v>390</v>
       </c>
       <c r="I207" t="s">
+        <v>66</v>
+      </c>
+      <c r="J207" t="s">
         <v>67</v>
-      </c>
-      <c r="J207" t="s">
-        <v>68</v>
       </c>
       <c r="M207" t="s">
         <v>26</v>
@@ -12400,7 +12402,7 @@
         <v>21</v>
       </c>
       <c r="C208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D208" t="s">
         <v>23</v>
@@ -12418,10 +12420,10 @@
         <v>390</v>
       </c>
       <c r="I208" t="s">
+        <v>66</v>
+      </c>
+      <c r="J208" t="s">
         <v>67</v>
-      </c>
-      <c r="J208" t="s">
-        <v>68</v>
       </c>
       <c r="M208" t="s">
         <v>26</v>
@@ -12459,7 +12461,7 @@
         <v>21</v>
       </c>
       <c r="C209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D209" t="s">
         <v>23</v>
@@ -12471,16 +12473,16 @@
         <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H209">
         <v>812</v>
       </c>
       <c r="I209" t="s">
+        <v>68</v>
+      </c>
+      <c r="J209" t="s">
         <v>69</v>
-      </c>
-      <c r="J209" t="s">
-        <v>70</v>
       </c>
       <c r="M209" t="s">
         <v>32</v>
@@ -12518,7 +12520,7 @@
         <v>21</v>
       </c>
       <c r="C210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D210" t="s">
         <v>23</v>
@@ -12530,16 +12532,16 @@
         <v>36</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H210">
         <v>812</v>
       </c>
       <c r="I210" t="s">
+        <v>68</v>
+      </c>
+      <c r="J210" t="s">
         <v>69</v>
-      </c>
-      <c r="J210" t="s">
-        <v>70</v>
       </c>
       <c r="M210" t="s">
         <v>26</v>
@@ -12577,7 +12579,7 @@
         <v>21</v>
       </c>
       <c r="C211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
@@ -12589,16 +12591,16 @@
         <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H211">
         <v>812</v>
       </c>
       <c r="I211" t="s">
+        <v>68</v>
+      </c>
+      <c r="J211" t="s">
         <v>69</v>
-      </c>
-      <c r="J211" t="s">
-        <v>70</v>
       </c>
       <c r="M211" t="s">
         <v>26</v>
@@ -12636,7 +12638,7 @@
         <v>21</v>
       </c>
       <c r="C212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D212" t="s">
         <v>23</v>
@@ -12645,19 +12647,19 @@
         <v>24</v>
       </c>
       <c r="F212" t="s">
+        <v>37</v>
+      </c>
+      <c r="G212" t="s">
         <v>38</v>
-      </c>
-      <c r="G212" t="s">
-        <v>39</v>
       </c>
       <c r="H212">
         <v>830</v>
       </c>
       <c r="I212" t="s">
+        <v>70</v>
+      </c>
+      <c r="J212" t="s">
         <v>71</v>
-      </c>
-      <c r="J212" t="s">
-        <v>72</v>
       </c>
       <c r="M212" t="s">
         <v>32</v>
@@ -12695,7 +12697,7 @@
         <v>21</v>
       </c>
       <c r="C213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D213" t="s">
         <v>23</v>
@@ -12704,19 +12706,19 @@
         <v>24</v>
       </c>
       <c r="F213" t="s">
+        <v>37</v>
+      </c>
+      <c r="G213" t="s">
         <v>38</v>
-      </c>
-      <c r="G213" t="s">
-        <v>39</v>
       </c>
       <c r="H213">
         <v>830</v>
       </c>
       <c r="I213" t="s">
+        <v>70</v>
+      </c>
+      <c r="J213" t="s">
         <v>71</v>
-      </c>
-      <c r="J213" t="s">
-        <v>72</v>
       </c>
       <c r="M213" t="s">
         <v>26</v>
@@ -12754,7 +12756,7 @@
         <v>21</v>
       </c>
       <c r="C214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D214" t="s">
         <v>23</v>
@@ -12763,19 +12765,19 @@
         <v>24</v>
       </c>
       <c r="F214" t="s">
+        <v>37</v>
+      </c>
+      <c r="G214" t="s">
         <v>38</v>
-      </c>
-      <c r="G214" t="s">
-        <v>39</v>
       </c>
       <c r="H214">
         <v>830</v>
       </c>
       <c r="I214" t="s">
+        <v>70</v>
+      </c>
+      <c r="J214" t="s">
         <v>71</v>
-      </c>
-      <c r="J214" t="s">
-        <v>72</v>
       </c>
       <c r="M214" t="s">
         <v>26</v>
@@ -12813,7 +12815,7 @@
         <v>21</v>
       </c>
       <c r="C215" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D215" t="s">
         <v>23</v>
@@ -12822,19 +12824,19 @@
         <v>24</v>
       </c>
       <c r="F215" t="s">
+        <v>43</v>
+      </c>
+      <c r="G215" t="s">
         <v>44</v>
-      </c>
-      <c r="G215" t="s">
-        <v>45</v>
       </c>
       <c r="H215">
         <v>870</v>
       </c>
       <c r="I215" t="s">
+        <v>72</v>
+      </c>
+      <c r="J215" t="s">
         <v>73</v>
-      </c>
-      <c r="J215" t="s">
-        <v>74</v>
       </c>
       <c r="M215" t="s">
         <v>32</v>
@@ -12872,7 +12874,7 @@
         <v>21</v>
       </c>
       <c r="C216" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D216" t="s">
         <v>23</v>
@@ -12881,19 +12883,19 @@
         <v>24</v>
       </c>
       <c r="F216" t="s">
+        <v>43</v>
+      </c>
+      <c r="G216" t="s">
         <v>44</v>
-      </c>
-      <c r="G216" t="s">
-        <v>45</v>
       </c>
       <c r="H216">
         <v>870</v>
       </c>
       <c r="I216" t="s">
+        <v>72</v>
+      </c>
+      <c r="J216" t="s">
         <v>73</v>
-      </c>
-      <c r="J216" t="s">
-        <v>74</v>
       </c>
       <c r="M216" t="s">
         <v>26</v>
@@ -12931,7 +12933,7 @@
         <v>21</v>
       </c>
       <c r="C217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D217" t="s">
         <v>23</v>
@@ -12940,19 +12942,19 @@
         <v>24</v>
       </c>
       <c r="F217" t="s">
+        <v>43</v>
+      </c>
+      <c r="G217" t="s">
         <v>44</v>
-      </c>
-      <c r="G217" t="s">
-        <v>45</v>
       </c>
       <c r="H217">
         <v>870</v>
       </c>
       <c r="I217" t="s">
+        <v>72</v>
+      </c>
+      <c r="J217" t="s">
         <v>73</v>
-      </c>
-      <c r="J217" t="s">
-        <v>74</v>
       </c>
       <c r="M217" t="s">
         <v>26</v>
@@ -12990,7 +12992,7 @@
         <v>21</v>
       </c>
       <c r="C218" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D218" t="s">
         <v>23</v>
@@ -12999,19 +13001,19 @@
         <v>24</v>
       </c>
       <c r="F218" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" t="s">
         <v>42</v>
-      </c>
-      <c r="G218" t="s">
-        <v>43</v>
       </c>
       <c r="H218">
         <v>881</v>
       </c>
       <c r="I218" t="s">
+        <v>74</v>
+      </c>
+      <c r="J218" t="s">
         <v>75</v>
-      </c>
-      <c r="J218" t="s">
-        <v>76</v>
       </c>
       <c r="M218" t="s">
         <v>32</v>
@@ -13049,7 +13051,7 @@
         <v>21</v>
       </c>
       <c r="C219" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D219" t="s">
         <v>23</v>
@@ -13058,19 +13060,19 @@
         <v>24</v>
       </c>
       <c r="F219" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" t="s">
         <v>42</v>
-      </c>
-      <c r="G219" t="s">
-        <v>43</v>
       </c>
       <c r="H219">
         <v>881</v>
       </c>
       <c r="I219" t="s">
+        <v>74</v>
+      </c>
+      <c r="J219" t="s">
         <v>75</v>
-      </c>
-      <c r="J219" t="s">
-        <v>76</v>
       </c>
       <c r="M219" t="s">
         <v>26</v>
@@ -13108,7 +13110,7 @@
         <v>21</v>
       </c>
       <c r="C220" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D220" t="s">
         <v>23</v>
@@ -13117,19 +13119,19 @@
         <v>24</v>
       </c>
       <c r="F220" t="s">
+        <v>41</v>
+      </c>
+      <c r="G220" t="s">
         <v>42</v>
-      </c>
-      <c r="G220" t="s">
-        <v>43</v>
       </c>
       <c r="H220">
         <v>881</v>
       </c>
       <c r="I220" t="s">
+        <v>74</v>
+      </c>
+      <c r="J220" t="s">
         <v>75</v>
-      </c>
-      <c r="J220" t="s">
-        <v>76</v>
       </c>
       <c r="M220" t="s">
         <v>26</v>
@@ -13167,7 +13169,7 @@
         <v>21</v>
       </c>
       <c r="C221" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D221" t="s">
         <v>23</v>
@@ -13185,10 +13187,10 @@
         <v>895</v>
       </c>
       <c r="I221" t="s">
+        <v>76</v>
+      </c>
+      <c r="J221" t="s">
         <v>77</v>
-      </c>
-      <c r="J221" t="s">
-        <v>78</v>
       </c>
       <c r="M221" t="s">
         <v>32</v>
@@ -13226,7 +13228,7 @@
         <v>21</v>
       </c>
       <c r="C222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D222" t="s">
         <v>23</v>
@@ -13244,10 +13246,10 @@
         <v>895</v>
       </c>
       <c r="I222" t="s">
+        <v>76</v>
+      </c>
+      <c r="J222" t="s">
         <v>77</v>
-      </c>
-      <c r="J222" t="s">
-        <v>78</v>
       </c>
       <c r="M222" t="s">
         <v>26</v>
@@ -13285,7 +13287,7 @@
         <v>21</v>
       </c>
       <c r="C223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D223" t="s">
         <v>23</v>
@@ -13303,10 +13305,10 @@
         <v>895</v>
       </c>
       <c r="I223" t="s">
+        <v>76</v>
+      </c>
+      <c r="J223" t="s">
         <v>77</v>
-      </c>
-      <c r="J223" t="s">
-        <v>78</v>
       </c>
       <c r="M223" t="s">
         <v>26</v>
@@ -13344,7 +13346,7 @@
         <v>21</v>
       </c>
       <c r="C224" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D224" t="s">
         <v>23</v>
@@ -13353,19 +13355,19 @@
         <v>24</v>
       </c>
       <c r="F224" t="s">
+        <v>45</v>
+      </c>
+      <c r="G224" t="s">
         <v>46</v>
-      </c>
-      <c r="G224" t="s">
-        <v>47</v>
       </c>
       <c r="H224">
         <v>933</v>
       </c>
       <c r="I224" t="s">
+        <v>78</v>
+      </c>
+      <c r="J224" t="s">
         <v>79</v>
-      </c>
-      <c r="J224" t="s">
-        <v>80</v>
       </c>
       <c r="M224" t="s">
         <v>32</v>
@@ -13403,7 +13405,7 @@
         <v>21</v>
       </c>
       <c r="C225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D225" t="s">
         <v>23</v>
@@ -13412,19 +13414,19 @@
         <v>24</v>
       </c>
       <c r="F225" t="s">
+        <v>45</v>
+      </c>
+      <c r="G225" t="s">
         <v>46</v>
-      </c>
-      <c r="G225" t="s">
-        <v>47</v>
       </c>
       <c r="H225">
         <v>933</v>
       </c>
       <c r="I225" t="s">
+        <v>78</v>
+      </c>
+      <c r="J225" t="s">
         <v>79</v>
-      </c>
-      <c r="J225" t="s">
-        <v>80</v>
       </c>
       <c r="M225" t="s">
         <v>26</v>
@@ -13462,7 +13464,7 @@
         <v>21</v>
       </c>
       <c r="C226" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D226" t="s">
         <v>23</v>
@@ -13471,19 +13473,19 @@
         <v>24</v>
       </c>
       <c r="F226" t="s">
+        <v>45</v>
+      </c>
+      <c r="G226" t="s">
         <v>46</v>
-      </c>
-      <c r="G226" t="s">
-        <v>47</v>
       </c>
       <c r="H226">
         <v>933</v>
       </c>
       <c r="I226" t="s">
+        <v>78</v>
+      </c>
+      <c r="J226" t="s">
         <v>79</v>
-      </c>
-      <c r="J226" t="s">
-        <v>80</v>
       </c>
       <c r="M226" t="s">
         <v>26</v>
@@ -13965,7 +13967,7 @@
         <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M236" t="s">
         <v>32</v>
@@ -14015,7 +14017,7 @@
         <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M237" t="s">
         <v>26</v>
@@ -14065,7 +14067,7 @@
         <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M238" t="s">
         <v>26</v>
@@ -14112,10 +14114,10 @@
         <v>24</v>
       </c>
       <c r="F239" t="s">
+        <v>37</v>
+      </c>
+      <c r="G239" t="s">
         <v>38</v>
-      </c>
-      <c r="G239" t="s">
-        <v>39</v>
       </c>
       <c r="M239" t="s">
         <v>32</v>
@@ -14162,10 +14164,10 @@
         <v>24</v>
       </c>
       <c r="F240" t="s">
+        <v>37</v>
+      </c>
+      <c r="G240" t="s">
         <v>38</v>
-      </c>
-      <c r="G240" t="s">
-        <v>39</v>
       </c>
       <c r="M240" t="s">
         <v>26</v>
@@ -14212,10 +14214,10 @@
         <v>24</v>
       </c>
       <c r="F241" t="s">
+        <v>37</v>
+      </c>
+      <c r="G241" t="s">
         <v>38</v>
-      </c>
-      <c r="G241" t="s">
-        <v>39</v>
       </c>
       <c r="M241" t="s">
         <v>26</v>
@@ -14262,10 +14264,10 @@
         <v>24</v>
       </c>
       <c r="F242" t="s">
+        <v>39</v>
+      </c>
+      <c r="G242" t="s">
         <v>40</v>
-      </c>
-      <c r="G242" t="s">
-        <v>41</v>
       </c>
       <c r="M242" t="s">
         <v>32</v>
@@ -14312,10 +14314,10 @@
         <v>24</v>
       </c>
       <c r="F243" t="s">
+        <v>39</v>
+      </c>
+      <c r="G243" t="s">
         <v>40</v>
-      </c>
-      <c r="G243" t="s">
-        <v>41</v>
       </c>
       <c r="M243" t="s">
         <v>26</v>
@@ -14362,10 +14364,10 @@
         <v>24</v>
       </c>
       <c r="F244" t="s">
+        <v>39</v>
+      </c>
+      <c r="G244" t="s">
         <v>40</v>
-      </c>
-      <c r="G244" t="s">
-        <v>41</v>
       </c>
       <c r="M244" t="s">
         <v>26</v>
@@ -14412,10 +14414,10 @@
         <v>24</v>
       </c>
       <c r="F245" t="s">
+        <v>41</v>
+      </c>
+      <c r="G245" t="s">
         <v>42</v>
-      </c>
-      <c r="G245" t="s">
-        <v>43</v>
       </c>
       <c r="M245" t="s">
         <v>32</v>
@@ -14462,10 +14464,10 @@
         <v>24</v>
       </c>
       <c r="F246" t="s">
+        <v>41</v>
+      </c>
+      <c r="G246" t="s">
         <v>42</v>
-      </c>
-      <c r="G246" t="s">
-        <v>43</v>
       </c>
       <c r="M246" t="s">
         <v>26</v>
@@ -14512,10 +14514,10 @@
         <v>24</v>
       </c>
       <c r="F247" t="s">
+        <v>41</v>
+      </c>
+      <c r="G247" t="s">
         <v>42</v>
-      </c>
-      <c r="G247" t="s">
-        <v>43</v>
       </c>
       <c r="M247" t="s">
         <v>26</v>
@@ -14562,10 +14564,10 @@
         <v>24</v>
       </c>
       <c r="F248" t="s">
+        <v>43</v>
+      </c>
+      <c r="G248" t="s">
         <v>44</v>
-      </c>
-      <c r="G248" t="s">
-        <v>45</v>
       </c>
       <c r="M248" t="s">
         <v>32</v>
@@ -14612,10 +14614,10 @@
         <v>24</v>
       </c>
       <c r="F249" t="s">
+        <v>43</v>
+      </c>
+      <c r="G249" t="s">
         <v>44</v>
-      </c>
-      <c r="G249" t="s">
-        <v>45</v>
       </c>
       <c r="M249" t="s">
         <v>26</v>
@@ -14662,10 +14664,10 @@
         <v>24</v>
       </c>
       <c r="F250" t="s">
+        <v>43</v>
+      </c>
+      <c r="G250" t="s">
         <v>44</v>
-      </c>
-      <c r="G250" t="s">
-        <v>45</v>
       </c>
       <c r="M250" t="s">
         <v>26</v>
@@ -14712,10 +14714,10 @@
         <v>24</v>
       </c>
       <c r="F251" t="s">
+        <v>45</v>
+      </c>
+      <c r="G251" t="s">
         <v>46</v>
-      </c>
-      <c r="G251" t="s">
-        <v>47</v>
       </c>
       <c r="M251" t="s">
         <v>32</v>
@@ -14762,10 +14764,10 @@
         <v>24</v>
       </c>
       <c r="F252" t="s">
+        <v>45</v>
+      </c>
+      <c r="G252" t="s">
         <v>46</v>
-      </c>
-      <c r="G252" t="s">
-        <v>47</v>
       </c>
       <c r="M252" t="s">
         <v>26</v>
@@ -14812,10 +14814,10 @@
         <v>24</v>
       </c>
       <c r="F253" t="s">
+        <v>45</v>
+      </c>
+      <c r="G253" t="s">
         <v>46</v>
-      </c>
-      <c r="G253" t="s">
-        <v>47</v>
       </c>
       <c r="M253" t="s">
         <v>26</v>
@@ -14862,10 +14864,10 @@
         <v>24</v>
       </c>
       <c r="F254" t="s">
+        <v>47</v>
+      </c>
+      <c r="G254" t="s">
         <v>48</v>
-      </c>
-      <c r="G254" t="s">
-        <v>49</v>
       </c>
       <c r="M254" t="s">
         <v>32</v>
@@ -14912,10 +14914,10 @@
         <v>24</v>
       </c>
       <c r="F255" t="s">
+        <v>47</v>
+      </c>
+      <c r="G255" t="s">
         <v>48</v>
-      </c>
-      <c r="G255" t="s">
-        <v>49</v>
       </c>
       <c r="M255" t="s">
         <v>26</v>
@@ -14962,10 +14964,10 @@
         <v>24</v>
       </c>
       <c r="F256" t="s">
+        <v>47</v>
+      </c>
+      <c r="G256" t="s">
         <v>48</v>
-      </c>
-      <c r="G256" t="s">
-        <v>49</v>
       </c>
       <c r="M256" t="s">
         <v>26</v>
@@ -15012,10 +15014,10 @@
         <v>24</v>
       </c>
       <c r="F257" t="s">
+        <v>49</v>
+      </c>
+      <c r="G257" t="s">
         <v>50</v>
-      </c>
-      <c r="G257" t="s">
-        <v>51</v>
       </c>
       <c r="M257" t="s">
         <v>32</v>
@@ -15062,10 +15064,10 @@
         <v>24</v>
       </c>
       <c r="F258" t="s">
+        <v>49</v>
+      </c>
+      <c r="G258" t="s">
         <v>50</v>
-      </c>
-      <c r="G258" t="s">
-        <v>51</v>
       </c>
       <c r="M258" t="s">
         <v>26</v>
@@ -15112,10 +15114,10 @@
         <v>24</v>
       </c>
       <c r="F259" t="s">
+        <v>49</v>
+      </c>
+      <c r="G259" t="s">
         <v>50</v>
-      </c>
-      <c r="G259" t="s">
-        <v>51</v>
       </c>
       <c r="M259" t="s">
         <v>26</v>
@@ -15153,7 +15155,7 @@
         <v>21</v>
       </c>
       <c r="C260" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D260" t="s">
         <v>23</v>
@@ -15162,19 +15164,19 @@
         <v>24</v>
       </c>
       <c r="F260" t="s">
+        <v>47</v>
+      </c>
+      <c r="G260" t="s">
         <v>48</v>
-      </c>
-      <c r="G260" t="s">
-        <v>49</v>
       </c>
       <c r="H260">
         <v>204</v>
       </c>
       <c r="I260" t="s">
+        <v>52</v>
+      </c>
+      <c r="J260" t="s">
         <v>53</v>
-      </c>
-      <c r="J260" t="s">
-        <v>54</v>
       </c>
       <c r="M260" t="s">
         <v>32</v>
@@ -15212,7 +15214,7 @@
         <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D261" t="s">
         <v>23</v>
@@ -15221,19 +15223,19 @@
         <v>24</v>
       </c>
       <c r="F261" t="s">
+        <v>47</v>
+      </c>
+      <c r="G261" t="s">
         <v>48</v>
-      </c>
-      <c r="G261" t="s">
-        <v>49</v>
       </c>
       <c r="H261">
         <v>204</v>
       </c>
       <c r="I261" t="s">
+        <v>52</v>
+      </c>
+      <c r="J261" t="s">
         <v>53</v>
-      </c>
-      <c r="J261" t="s">
-        <v>54</v>
       </c>
       <c r="M261" t="s">
         <v>26</v>
@@ -15271,7 +15273,7 @@
         <v>21</v>
       </c>
       <c r="C262" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D262" t="s">
         <v>23</v>
@@ -15280,19 +15282,19 @@
         <v>24</v>
       </c>
       <c r="F262" t="s">
+        <v>47</v>
+      </c>
+      <c r="G262" t="s">
         <v>48</v>
-      </c>
-      <c r="G262" t="s">
-        <v>49</v>
       </c>
       <c r="H262">
         <v>204</v>
       </c>
       <c r="I262" t="s">
+        <v>52</v>
+      </c>
+      <c r="J262" t="s">
         <v>53</v>
-      </c>
-      <c r="J262" t="s">
-        <v>54</v>
       </c>
       <c r="M262" t="s">
         <v>26</v>
@@ -15330,7 +15332,7 @@
         <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D263" t="s">
         <v>23</v>
@@ -15339,19 +15341,19 @@
         <v>24</v>
       </c>
       <c r="F263" t="s">
+        <v>47</v>
+      </c>
+      <c r="G263" t="s">
         <v>48</v>
-      </c>
-      <c r="G263" t="s">
-        <v>49</v>
       </c>
       <c r="H263">
         <v>208</v>
       </c>
       <c r="I263" t="s">
+        <v>54</v>
+      </c>
+      <c r="J263" t="s">
         <v>55</v>
-      </c>
-      <c r="J263" t="s">
-        <v>56</v>
       </c>
       <c r="M263" t="s">
         <v>32</v>
@@ -15389,7 +15391,7 @@
         <v>21</v>
       </c>
       <c r="C264" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D264" t="s">
         <v>23</v>
@@ -15398,19 +15400,19 @@
         <v>24</v>
       </c>
       <c r="F264" t="s">
+        <v>47</v>
+      </c>
+      <c r="G264" t="s">
         <v>48</v>
-      </c>
-      <c r="G264" t="s">
-        <v>49</v>
       </c>
       <c r="H264">
         <v>208</v>
       </c>
       <c r="I264" t="s">
+        <v>54</v>
+      </c>
+      <c r="J264" t="s">
         <v>55</v>
-      </c>
-      <c r="J264" t="s">
-        <v>56</v>
       </c>
       <c r="M264" t="s">
         <v>26</v>
@@ -15448,7 +15450,7 @@
         <v>21</v>
       </c>
       <c r="C265" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D265" t="s">
         <v>23</v>
@@ -15457,19 +15459,19 @@
         <v>24</v>
       </c>
       <c r="F265" t="s">
+        <v>47</v>
+      </c>
+      <c r="G265" t="s">
         <v>48</v>
-      </c>
-      <c r="G265" t="s">
-        <v>49</v>
       </c>
       <c r="H265">
         <v>208</v>
       </c>
       <c r="I265" t="s">
+        <v>54</v>
+      </c>
+      <c r="J265" t="s">
         <v>55</v>
-      </c>
-      <c r="J265" t="s">
-        <v>56</v>
       </c>
       <c r="M265" t="s">
         <v>26</v>
@@ -15507,7 +15509,7 @@
         <v>21</v>
       </c>
       <c r="C266" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D266" t="s">
         <v>23</v>
@@ -15516,19 +15518,19 @@
         <v>24</v>
       </c>
       <c r="F266" t="s">
+        <v>49</v>
+      </c>
+      <c r="G266" t="s">
         <v>50</v>
-      </c>
-      <c r="G266" t="s">
-        <v>51</v>
       </c>
       <c r="H266">
         <v>303</v>
       </c>
       <c r="I266" t="s">
+        <v>56</v>
+      </c>
+      <c r="J266" t="s">
         <v>57</v>
-      </c>
-      <c r="J266" t="s">
-        <v>58</v>
       </c>
       <c r="M266" t="s">
         <v>32</v>
@@ -15566,7 +15568,7 @@
         <v>21</v>
       </c>
       <c r="C267" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D267" t="s">
         <v>23</v>
@@ -15575,19 +15577,19 @@
         <v>24</v>
       </c>
       <c r="F267" t="s">
+        <v>49</v>
+      </c>
+      <c r="G267" t="s">
         <v>50</v>
-      </c>
-      <c r="G267" t="s">
-        <v>51</v>
       </c>
       <c r="H267">
         <v>303</v>
       </c>
       <c r="I267" t="s">
+        <v>56</v>
+      </c>
+      <c r="J267" t="s">
         <v>57</v>
-      </c>
-      <c r="J267" t="s">
-        <v>58</v>
       </c>
       <c r="M267" t="s">
         <v>26</v>
@@ -15625,7 +15627,7 @@
         <v>21</v>
       </c>
       <c r="C268" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D268" t="s">
         <v>23</v>
@@ -15634,19 +15636,19 @@
         <v>24</v>
       </c>
       <c r="F268" t="s">
+        <v>49</v>
+      </c>
+      <c r="G268" t="s">
         <v>50</v>
-      </c>
-      <c r="G268" t="s">
-        <v>51</v>
       </c>
       <c r="H268">
         <v>303</v>
       </c>
       <c r="I268" t="s">
+        <v>56</v>
+      </c>
+      <c r="J268" t="s">
         <v>57</v>
-      </c>
-      <c r="J268" t="s">
-        <v>58</v>
       </c>
       <c r="M268" t="s">
         <v>26</v>
@@ -15684,7 +15686,7 @@
         <v>21</v>
       </c>
       <c r="C269" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D269" t="s">
         <v>23</v>
@@ -15693,19 +15695,19 @@
         <v>24</v>
       </c>
       <c r="F269" t="s">
+        <v>49</v>
+      </c>
+      <c r="G269" t="s">
         <v>50</v>
-      </c>
-      <c r="G269" t="s">
-        <v>51</v>
       </c>
       <c r="H269">
         <v>310</v>
       </c>
       <c r="I269" t="s">
+        <v>58</v>
+      </c>
+      <c r="J269" t="s">
         <v>59</v>
-      </c>
-      <c r="J269" t="s">
-        <v>60</v>
       </c>
       <c r="M269" t="s">
         <v>32</v>
@@ -15743,7 +15745,7 @@
         <v>21</v>
       </c>
       <c r="C270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D270" t="s">
         <v>23</v>
@@ -15752,19 +15754,19 @@
         <v>24</v>
       </c>
       <c r="F270" t="s">
+        <v>49</v>
+      </c>
+      <c r="G270" t="s">
         <v>50</v>
-      </c>
-      <c r="G270" t="s">
-        <v>51</v>
       </c>
       <c r="H270">
         <v>310</v>
       </c>
       <c r="I270" t="s">
+        <v>58</v>
+      </c>
+      <c r="J270" t="s">
         <v>59</v>
-      </c>
-      <c r="J270" t="s">
-        <v>60</v>
       </c>
       <c r="M270" t="s">
         <v>26</v>
@@ -15802,7 +15804,7 @@
         <v>21</v>
       </c>
       <c r="C271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D271" t="s">
         <v>23</v>
@@ -15811,19 +15813,19 @@
         <v>24</v>
       </c>
       <c r="F271" t="s">
+        <v>49</v>
+      </c>
+      <c r="G271" t="s">
         <v>50</v>
-      </c>
-      <c r="G271" t="s">
-        <v>51</v>
       </c>
       <c r="H271">
         <v>310</v>
       </c>
       <c r="I271" t="s">
+        <v>58</v>
+      </c>
+      <c r="J271" t="s">
         <v>59</v>
-      </c>
-      <c r="J271" t="s">
-        <v>60</v>
       </c>
       <c r="M271" t="s">
         <v>26</v>
@@ -15861,7 +15863,7 @@
         <v>21</v>
       </c>
       <c r="C272" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D272" t="s">
         <v>23</v>
@@ -15870,19 +15872,19 @@
         <v>24</v>
       </c>
       <c r="F272" t="s">
+        <v>49</v>
+      </c>
+      <c r="G272" t="s">
         <v>50</v>
-      </c>
-      <c r="G272" t="s">
-        <v>51</v>
       </c>
       <c r="H272">
         <v>317</v>
       </c>
       <c r="I272" t="s">
+        <v>60</v>
+      </c>
+      <c r="J272" t="s">
         <v>61</v>
-      </c>
-      <c r="J272" t="s">
-        <v>62</v>
       </c>
       <c r="M272" t="s">
         <v>32</v>
@@ -15920,7 +15922,7 @@
         <v>21</v>
       </c>
       <c r="C273" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D273" t="s">
         <v>23</v>
@@ -15929,19 +15931,19 @@
         <v>24</v>
       </c>
       <c r="F273" t="s">
+        <v>49</v>
+      </c>
+      <c r="G273" t="s">
         <v>50</v>
-      </c>
-      <c r="G273" t="s">
-        <v>51</v>
       </c>
       <c r="H273">
         <v>317</v>
       </c>
       <c r="I273" t="s">
+        <v>60</v>
+      </c>
+      <c r="J273" t="s">
         <v>61</v>
-      </c>
-      <c r="J273" t="s">
-        <v>62</v>
       </c>
       <c r="M273" t="s">
         <v>26</v>
@@ -15979,7 +15981,7 @@
         <v>21</v>
       </c>
       <c r="C274" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D274" t="s">
         <v>23</v>
@@ -15988,19 +15990,19 @@
         <v>24</v>
       </c>
       <c r="F274" t="s">
+        <v>49</v>
+      </c>
+      <c r="G274" t="s">
         <v>50</v>
-      </c>
-      <c r="G274" t="s">
-        <v>51</v>
       </c>
       <c r="H274">
         <v>317</v>
       </c>
       <c r="I274" t="s">
+        <v>60</v>
+      </c>
+      <c r="J274" t="s">
         <v>61</v>
-      </c>
-      <c r="J274" t="s">
-        <v>62</v>
       </c>
       <c r="M274" t="s">
         <v>26</v>
@@ -16038,7 +16040,7 @@
         <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D275" t="s">
         <v>23</v>
@@ -16047,19 +16049,19 @@
         <v>24</v>
       </c>
       <c r="F275" t="s">
+        <v>39</v>
+      </c>
+      <c r="G275" t="s">
         <v>40</v>
-      </c>
-      <c r="G275" t="s">
-        <v>41</v>
       </c>
       <c r="H275">
         <v>335</v>
       </c>
       <c r="I275" t="s">
+        <v>62</v>
+      </c>
+      <c r="J275" t="s">
         <v>63</v>
-      </c>
-      <c r="J275" t="s">
-        <v>64</v>
       </c>
       <c r="M275" t="s">
         <v>32</v>
@@ -16097,7 +16099,7 @@
         <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D276" t="s">
         <v>23</v>
@@ -16106,19 +16108,19 @@
         <v>24</v>
       </c>
       <c r="F276" t="s">
+        <v>39</v>
+      </c>
+      <c r="G276" t="s">
         <v>40</v>
-      </c>
-      <c r="G276" t="s">
-        <v>41</v>
       </c>
       <c r="H276">
         <v>335</v>
       </c>
       <c r="I276" t="s">
+        <v>62</v>
+      </c>
+      <c r="J276" t="s">
         <v>63</v>
-      </c>
-      <c r="J276" t="s">
-        <v>64</v>
       </c>
       <c r="M276" t="s">
         <v>26</v>
@@ -16156,7 +16158,7 @@
         <v>21</v>
       </c>
       <c r="C277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D277" t="s">
         <v>23</v>
@@ -16165,19 +16167,19 @@
         <v>24</v>
       </c>
       <c r="F277" t="s">
+        <v>39</v>
+      </c>
+      <c r="G277" t="s">
         <v>40</v>
-      </c>
-      <c r="G277" t="s">
-        <v>41</v>
       </c>
       <c r="H277">
         <v>335</v>
       </c>
       <c r="I277" t="s">
+        <v>62</v>
+      </c>
+      <c r="J277" t="s">
         <v>63</v>
-      </c>
-      <c r="J277" t="s">
-        <v>64</v>
       </c>
       <c r="M277" t="s">
         <v>26</v>
@@ -16215,7 +16217,7 @@
         <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D278" t="s">
         <v>23</v>
@@ -16233,10 +16235,10 @@
         <v>342</v>
       </c>
       <c r="I278" t="s">
+        <v>64</v>
+      </c>
+      <c r="J278" t="s">
         <v>65</v>
-      </c>
-      <c r="J278" t="s">
-        <v>66</v>
       </c>
       <c r="M278" t="s">
         <v>32</v>
@@ -16274,7 +16276,7 @@
         <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D279" t="s">
         <v>23</v>
@@ -16292,10 +16294,10 @@
         <v>342</v>
       </c>
       <c r="I279" t="s">
+        <v>64</v>
+      </c>
+      <c r="J279" t="s">
         <v>65</v>
-      </c>
-      <c r="J279" t="s">
-        <v>66</v>
       </c>
       <c r="M279" t="s">
         <v>26</v>
@@ -16333,7 +16335,7 @@
         <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D280" t="s">
         <v>23</v>
@@ -16351,10 +16353,10 @@
         <v>342</v>
       </c>
       <c r="I280" t="s">
+        <v>64</v>
+      </c>
+      <c r="J280" t="s">
         <v>65</v>
-      </c>
-      <c r="J280" t="s">
-        <v>66</v>
       </c>
       <c r="M280" t="s">
         <v>26</v>
@@ -16392,7 +16394,7 @@
         <v>21</v>
       </c>
       <c r="C281" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D281" t="s">
         <v>23</v>
@@ -16410,10 +16412,10 @@
         <v>390</v>
       </c>
       <c r="I281" t="s">
+        <v>66</v>
+      </c>
+      <c r="J281" t="s">
         <v>67</v>
-      </c>
-      <c r="J281" t="s">
-        <v>68</v>
       </c>
       <c r="M281" t="s">
         <v>32</v>
@@ -16451,7 +16453,7 @@
         <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D282" t="s">
         <v>23</v>
@@ -16469,10 +16471,10 @@
         <v>390</v>
       </c>
       <c r="I282" t="s">
+        <v>66</v>
+      </c>
+      <c r="J282" t="s">
         <v>67</v>
-      </c>
-      <c r="J282" t="s">
-        <v>68</v>
       </c>
       <c r="M282" t="s">
         <v>26</v>
@@ -16510,7 +16512,7 @@
         <v>21</v>
       </c>
       <c r="C283" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D283" t="s">
         <v>23</v>
@@ -16528,10 +16530,10 @@
         <v>390</v>
       </c>
       <c r="I283" t="s">
+        <v>66</v>
+      </c>
+      <c r="J283" t="s">
         <v>67</v>
-      </c>
-      <c r="J283" t="s">
-        <v>68</v>
       </c>
       <c r="M283" t="s">
         <v>26</v>
@@ -16569,7 +16571,7 @@
         <v>21</v>
       </c>
       <c r="C284" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D284" t="s">
         <v>23</v>
@@ -16581,16 +16583,16 @@
         <v>36</v>
       </c>
       <c r="G284" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H284">
         <v>812</v>
       </c>
       <c r="I284" t="s">
+        <v>68</v>
+      </c>
+      <c r="J284" t="s">
         <v>69</v>
-      </c>
-      <c r="J284" t="s">
-        <v>70</v>
       </c>
       <c r="M284" t="s">
         <v>32</v>
@@ -16628,7 +16630,7 @@
         <v>21</v>
       </c>
       <c r="C285" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D285" t="s">
         <v>23</v>
@@ -16640,16 +16642,16 @@
         <v>36</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H285">
         <v>812</v>
       </c>
       <c r="I285" t="s">
+        <v>68</v>
+      </c>
+      <c r="J285" t="s">
         <v>69</v>
-      </c>
-      <c r="J285" t="s">
-        <v>70</v>
       </c>
       <c r="M285" t="s">
         <v>26</v>
@@ -16687,7 +16689,7 @@
         <v>21</v>
       </c>
       <c r="C286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D286" t="s">
         <v>23</v>
@@ -16699,16 +16701,16 @@
         <v>36</v>
       </c>
       <c r="G286" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H286">
         <v>812</v>
       </c>
       <c r="I286" t="s">
+        <v>68</v>
+      </c>
+      <c r="J286" t="s">
         <v>69</v>
-      </c>
-      <c r="J286" t="s">
-        <v>70</v>
       </c>
       <c r="M286" t="s">
         <v>26</v>
@@ -16746,7 +16748,7 @@
         <v>21</v>
       </c>
       <c r="C287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D287" t="s">
         <v>23</v>
@@ -16755,19 +16757,19 @@
         <v>24</v>
       </c>
       <c r="F287" t="s">
+        <v>37</v>
+      </c>
+      <c r="G287" t="s">
         <v>38</v>
-      </c>
-      <c r="G287" t="s">
-        <v>39</v>
       </c>
       <c r="H287">
         <v>830</v>
       </c>
       <c r="I287" t="s">
+        <v>70</v>
+      </c>
+      <c r="J287" t="s">
         <v>71</v>
-      </c>
-      <c r="J287" t="s">
-        <v>72</v>
       </c>
       <c r="M287" t="s">
         <v>32</v>
@@ -16805,7 +16807,7 @@
         <v>21</v>
       </c>
       <c r="C288" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D288" t="s">
         <v>23</v>
@@ -16814,19 +16816,19 @@
         <v>24</v>
       </c>
       <c r="F288" t="s">
+        <v>37</v>
+      </c>
+      <c r="G288" t="s">
         <v>38</v>
-      </c>
-      <c r="G288" t="s">
-        <v>39</v>
       </c>
       <c r="H288">
         <v>830</v>
       </c>
       <c r="I288" t="s">
+        <v>70</v>
+      </c>
+      <c r="J288" t="s">
         <v>71</v>
-      </c>
-      <c r="J288" t="s">
-        <v>72</v>
       </c>
       <c r="M288" t="s">
         <v>26</v>
@@ -16864,7 +16866,7 @@
         <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D289" t="s">
         <v>23</v>
@@ -16873,19 +16875,19 @@
         <v>24</v>
       </c>
       <c r="F289" t="s">
+        <v>37</v>
+      </c>
+      <c r="G289" t="s">
         <v>38</v>
-      </c>
-      <c r="G289" t="s">
-        <v>39</v>
       </c>
       <c r="H289">
         <v>830</v>
       </c>
       <c r="I289" t="s">
+        <v>70</v>
+      </c>
+      <c r="J289" t="s">
         <v>71</v>
-      </c>
-      <c r="J289" t="s">
-        <v>72</v>
       </c>
       <c r="M289" t="s">
         <v>26</v>
@@ -16923,7 +16925,7 @@
         <v>21</v>
       </c>
       <c r="C290" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D290" t="s">
         <v>23</v>
@@ -16932,19 +16934,19 @@
         <v>24</v>
       </c>
       <c r="F290" t="s">
+        <v>43</v>
+      </c>
+      <c r="G290" t="s">
         <v>44</v>
-      </c>
-      <c r="G290" t="s">
-        <v>45</v>
       </c>
       <c r="H290">
         <v>870</v>
       </c>
       <c r="I290" t="s">
+        <v>72</v>
+      </c>
+      <c r="J290" t="s">
         <v>73</v>
-      </c>
-      <c r="J290" t="s">
-        <v>74</v>
       </c>
       <c r="M290" t="s">
         <v>32</v>
@@ -16982,7 +16984,7 @@
         <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D291" t="s">
         <v>23</v>
@@ -16991,19 +16993,19 @@
         <v>24</v>
       </c>
       <c r="F291" t="s">
+        <v>43</v>
+      </c>
+      <c r="G291" t="s">
         <v>44</v>
-      </c>
-      <c r="G291" t="s">
-        <v>45</v>
       </c>
       <c r="H291">
         <v>870</v>
       </c>
       <c r="I291" t="s">
+        <v>72</v>
+      </c>
+      <c r="J291" t="s">
         <v>73</v>
-      </c>
-      <c r="J291" t="s">
-        <v>74</v>
       </c>
       <c r="M291" t="s">
         <v>26</v>
@@ -17041,7 +17043,7 @@
         <v>21</v>
       </c>
       <c r="C292" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D292" t="s">
         <v>23</v>
@@ -17050,19 +17052,19 @@
         <v>24</v>
       </c>
       <c r="F292" t="s">
+        <v>43</v>
+      </c>
+      <c r="G292" t="s">
         <v>44</v>
-      </c>
-      <c r="G292" t="s">
-        <v>45</v>
       </c>
       <c r="H292">
         <v>870</v>
       </c>
       <c r="I292" t="s">
+        <v>72</v>
+      </c>
+      <c r="J292" t="s">
         <v>73</v>
-      </c>
-      <c r="J292" t="s">
-        <v>74</v>
       </c>
       <c r="M292" t="s">
         <v>26</v>
@@ -17100,7 +17102,7 @@
         <v>21</v>
       </c>
       <c r="C293" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D293" t="s">
         <v>23</v>
@@ -17109,19 +17111,19 @@
         <v>24</v>
       </c>
       <c r="F293" t="s">
+        <v>41</v>
+      </c>
+      <c r="G293" t="s">
         <v>42</v>
-      </c>
-      <c r="G293" t="s">
-        <v>43</v>
       </c>
       <c r="H293">
         <v>881</v>
       </c>
       <c r="I293" t="s">
+        <v>74</v>
+      </c>
+      <c r="J293" t="s">
         <v>75</v>
-      </c>
-      <c r="J293" t="s">
-        <v>76</v>
       </c>
       <c r="M293" t="s">
         <v>32</v>
@@ -17159,7 +17161,7 @@
         <v>21</v>
       </c>
       <c r="C294" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D294" t="s">
         <v>23</v>
@@ -17168,19 +17170,19 @@
         <v>24</v>
       </c>
       <c r="F294" t="s">
+        <v>41</v>
+      </c>
+      <c r="G294" t="s">
         <v>42</v>
-      </c>
-      <c r="G294" t="s">
-        <v>43</v>
       </c>
       <c r="H294">
         <v>881</v>
       </c>
       <c r="I294" t="s">
+        <v>74</v>
+      </c>
+      <c r="J294" t="s">
         <v>75</v>
-      </c>
-      <c r="J294" t="s">
-        <v>76</v>
       </c>
       <c r="M294" t="s">
         <v>26</v>
@@ -17218,7 +17220,7 @@
         <v>21</v>
       </c>
       <c r="C295" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D295" t="s">
         <v>23</v>
@@ -17227,19 +17229,19 @@
         <v>24</v>
       </c>
       <c r="F295" t="s">
+        <v>41</v>
+      </c>
+      <c r="G295" t="s">
         <v>42</v>
-      </c>
-      <c r="G295" t="s">
-        <v>43</v>
       </c>
       <c r="H295">
         <v>881</v>
       </c>
       <c r="I295" t="s">
+        <v>74</v>
+      </c>
+      <c r="J295" t="s">
         <v>75</v>
-      </c>
-      <c r="J295" t="s">
-        <v>76</v>
       </c>
       <c r="M295" t="s">
         <v>26</v>
@@ -17277,7 +17279,7 @@
         <v>21</v>
       </c>
       <c r="C296" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D296" t="s">
         <v>23</v>
@@ -17295,10 +17297,10 @@
         <v>895</v>
       </c>
       <c r="I296" t="s">
+        <v>76</v>
+      </c>
+      <c r="J296" t="s">
         <v>77</v>
-      </c>
-      <c r="J296" t="s">
-        <v>78</v>
       </c>
       <c r="M296" t="s">
         <v>32</v>
@@ -17336,7 +17338,7 @@
         <v>21</v>
       </c>
       <c r="C297" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D297" t="s">
         <v>23</v>
@@ -17354,10 +17356,10 @@
         <v>895</v>
       </c>
       <c r="I297" t="s">
+        <v>76</v>
+      </c>
+      <c r="J297" t="s">
         <v>77</v>
-      </c>
-      <c r="J297" t="s">
-        <v>78</v>
       </c>
       <c r="M297" t="s">
         <v>26</v>
@@ -17395,7 +17397,7 @@
         <v>21</v>
       </c>
       <c r="C298" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D298" t="s">
         <v>23</v>
@@ -17413,10 +17415,10 @@
         <v>895</v>
       </c>
       <c r="I298" t="s">
+        <v>76</v>
+      </c>
+      <c r="J298" t="s">
         <v>77</v>
-      </c>
-      <c r="J298" t="s">
-        <v>78</v>
       </c>
       <c r="M298" t="s">
         <v>26</v>
@@ -17454,7 +17456,7 @@
         <v>21</v>
       </c>
       <c r="C299" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D299" t="s">
         <v>23</v>
@@ -17463,19 +17465,19 @@
         <v>24</v>
       </c>
       <c r="F299" t="s">
+        <v>45</v>
+      </c>
+      <c r="G299" t="s">
         <v>46</v>
-      </c>
-      <c r="G299" t="s">
-        <v>47</v>
       </c>
       <c r="H299">
         <v>933</v>
       </c>
       <c r="I299" t="s">
+        <v>78</v>
+      </c>
+      <c r="J299" t="s">
         <v>79</v>
-      </c>
-      <c r="J299" t="s">
-        <v>80</v>
       </c>
       <c r="M299" t="s">
         <v>32</v>
@@ -17513,7 +17515,7 @@
         <v>21</v>
       </c>
       <c r="C300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D300" t="s">
         <v>23</v>
@@ -17522,19 +17524,19 @@
         <v>24</v>
       </c>
       <c r="F300" t="s">
+        <v>45</v>
+      </c>
+      <c r="G300" t="s">
         <v>46</v>
-      </c>
-      <c r="G300" t="s">
-        <v>47</v>
       </c>
       <c r="H300">
         <v>933</v>
       </c>
       <c r="I300" t="s">
+        <v>78</v>
+      </c>
+      <c r="J300" t="s">
         <v>79</v>
-      </c>
-      <c r="J300" t="s">
-        <v>80</v>
       </c>
       <c r="M300" t="s">
         <v>26</v>
@@ -17572,7 +17574,7 @@
         <v>21</v>
       </c>
       <c r="C301" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D301" t="s">
         <v>23</v>
@@ -17581,19 +17583,19 @@
         <v>24</v>
       </c>
       <c r="F301" t="s">
+        <v>45</v>
+      </c>
+      <c r="G301" t="s">
         <v>46</v>
-      </c>
-      <c r="G301" t="s">
-        <v>47</v>
       </c>
       <c r="H301">
         <v>933</v>
       </c>
       <c r="I301" t="s">
+        <v>78</v>
+      </c>
+      <c r="J301" t="s">
         <v>79</v>
-      </c>
-      <c r="J301" t="s">
-        <v>80</v>
       </c>
       <c r="M301" t="s">
         <v>26</v>
@@ -18075,7 +18077,7 @@
         <v>36</v>
       </c>
       <c r="G311" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M311" t="s">
         <v>32</v>
@@ -18125,7 +18127,7 @@
         <v>36</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M312" t="s">
         <v>26</v>
@@ -18175,7 +18177,7 @@
         <v>36</v>
       </c>
       <c r="G313" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M313" t="s">
         <v>26</v>
@@ -18222,10 +18224,10 @@
         <v>24</v>
       </c>
       <c r="F314" t="s">
+        <v>37</v>
+      </c>
+      <c r="G314" t="s">
         <v>38</v>
-      </c>
-      <c r="G314" t="s">
-        <v>39</v>
       </c>
       <c r="M314" t="s">
         <v>32</v>
@@ -18272,10 +18274,10 @@
         <v>24</v>
       </c>
       <c r="F315" t="s">
+        <v>37</v>
+      </c>
+      <c r="G315" t="s">
         <v>38</v>
-      </c>
-      <c r="G315" t="s">
-        <v>39</v>
       </c>
       <c r="M315" t="s">
         <v>26</v>
@@ -18322,10 +18324,10 @@
         <v>24</v>
       </c>
       <c r="F316" t="s">
+        <v>37</v>
+      </c>
+      <c r="G316" t="s">
         <v>38</v>
-      </c>
-      <c r="G316" t="s">
-        <v>39</v>
       </c>
       <c r="M316" t="s">
         <v>26</v>
@@ -18372,10 +18374,10 @@
         <v>24</v>
       </c>
       <c r="F317" t="s">
+        <v>39</v>
+      </c>
+      <c r="G317" t="s">
         <v>40</v>
-      </c>
-      <c r="G317" t="s">
-        <v>41</v>
       </c>
       <c r="M317" t="s">
         <v>32</v>
@@ -18422,10 +18424,10 @@
         <v>24</v>
       </c>
       <c r="F318" t="s">
+        <v>39</v>
+      </c>
+      <c r="G318" t="s">
         <v>40</v>
-      </c>
-      <c r="G318" t="s">
-        <v>41</v>
       </c>
       <c r="M318" t="s">
         <v>26</v>
@@ -18472,10 +18474,10 @@
         <v>24</v>
       </c>
       <c r="F319" t="s">
+        <v>39</v>
+      </c>
+      <c r="G319" t="s">
         <v>40</v>
-      </c>
-      <c r="G319" t="s">
-        <v>41</v>
       </c>
       <c r="M319" t="s">
         <v>26</v>
@@ -18522,10 +18524,10 @@
         <v>24</v>
       </c>
       <c r="F320" t="s">
+        <v>41</v>
+      </c>
+      <c r="G320" t="s">
         <v>42</v>
-      </c>
-      <c r="G320" t="s">
-        <v>43</v>
       </c>
       <c r="M320" t="s">
         <v>32</v>
@@ -18572,10 +18574,10 @@
         <v>24</v>
       </c>
       <c r="F321" t="s">
+        <v>41</v>
+      </c>
+      <c r="G321" t="s">
         <v>42</v>
-      </c>
-      <c r="G321" t="s">
-        <v>43</v>
       </c>
       <c r="M321" t="s">
         <v>26</v>
@@ -18622,10 +18624,10 @@
         <v>24</v>
       </c>
       <c r="F322" t="s">
+        <v>41</v>
+      </c>
+      <c r="G322" t="s">
         <v>42</v>
-      </c>
-      <c r="G322" t="s">
-        <v>43</v>
       </c>
       <c r="M322" t="s">
         <v>26</v>
@@ -18672,10 +18674,10 @@
         <v>24</v>
       </c>
       <c r="F323" t="s">
+        <v>43</v>
+      </c>
+      <c r="G323" t="s">
         <v>44</v>
-      </c>
-      <c r="G323" t="s">
-        <v>45</v>
       </c>
       <c r="M323" t="s">
         <v>32</v>
@@ -18722,10 +18724,10 @@
         <v>24</v>
       </c>
       <c r="F324" t="s">
+        <v>43</v>
+      </c>
+      <c r="G324" t="s">
         <v>44</v>
-      </c>
-      <c r="G324" t="s">
-        <v>45</v>
       </c>
       <c r="M324" t="s">
         <v>26</v>
@@ -18772,10 +18774,10 @@
         <v>24</v>
       </c>
       <c r="F325" t="s">
+        <v>43</v>
+      </c>
+      <c r="G325" t="s">
         <v>44</v>
-      </c>
-      <c r="G325" t="s">
-        <v>45</v>
       </c>
       <c r="M325" t="s">
         <v>26</v>
@@ -18822,10 +18824,10 @@
         <v>24</v>
       </c>
       <c r="F326" t="s">
+        <v>45</v>
+      </c>
+      <c r="G326" t="s">
         <v>46</v>
-      </c>
-      <c r="G326" t="s">
-        <v>47</v>
       </c>
       <c r="M326" t="s">
         <v>32</v>
@@ -18872,10 +18874,10 @@
         <v>24</v>
       </c>
       <c r="F327" t="s">
+        <v>45</v>
+      </c>
+      <c r="G327" t="s">
         <v>46</v>
-      </c>
-      <c r="G327" t="s">
-        <v>47</v>
       </c>
       <c r="M327" t="s">
         <v>26</v>
@@ -18922,10 +18924,10 @@
         <v>24</v>
       </c>
       <c r="F328" t="s">
+        <v>45</v>
+      </c>
+      <c r="G328" t="s">
         <v>46</v>
-      </c>
-      <c r="G328" t="s">
-        <v>47</v>
       </c>
       <c r="M328" t="s">
         <v>26</v>
@@ -18972,10 +18974,10 @@
         <v>24</v>
       </c>
       <c r="F329" t="s">
+        <v>47</v>
+      </c>
+      <c r="G329" t="s">
         <v>48</v>
-      </c>
-      <c r="G329" t="s">
-        <v>49</v>
       </c>
       <c r="M329" t="s">
         <v>32</v>
@@ -19022,10 +19024,10 @@
         <v>24</v>
       </c>
       <c r="F330" t="s">
+        <v>47</v>
+      </c>
+      <c r="G330" t="s">
         <v>48</v>
-      </c>
-      <c r="G330" t="s">
-        <v>49</v>
       </c>
       <c r="M330" t="s">
         <v>26</v>
@@ -19072,10 +19074,10 @@
         <v>24</v>
       </c>
       <c r="F331" t="s">
+        <v>47</v>
+      </c>
+      <c r="G331" t="s">
         <v>48</v>
-      </c>
-      <c r="G331" t="s">
-        <v>49</v>
       </c>
       <c r="M331" t="s">
         <v>26</v>
@@ -19122,10 +19124,10 @@
         <v>24</v>
       </c>
       <c r="F332" t="s">
+        <v>49</v>
+      </c>
+      <c r="G332" t="s">
         <v>50</v>
-      </c>
-      <c r="G332" t="s">
-        <v>51</v>
       </c>
       <c r="M332" t="s">
         <v>32</v>
@@ -19172,10 +19174,10 @@
         <v>24</v>
       </c>
       <c r="F333" t="s">
+        <v>49</v>
+      </c>
+      <c r="G333" t="s">
         <v>50</v>
-      </c>
-      <c r="G333" t="s">
-        <v>51</v>
       </c>
       <c r="M333" t="s">
         <v>26</v>
@@ -19222,10 +19224,10 @@
         <v>24</v>
       </c>
       <c r="F334" t="s">
+        <v>49</v>
+      </c>
+      <c r="G334" t="s">
         <v>50</v>
-      </c>
-      <c r="G334" t="s">
-        <v>51</v>
       </c>
       <c r="M334" t="s">
         <v>26</v>
@@ -19263,7 +19265,7 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D335" t="s">
         <v>23</v>
@@ -19272,19 +19274,19 @@
         <v>24</v>
       </c>
       <c r="F335" t="s">
+        <v>47</v>
+      </c>
+      <c r="G335" t="s">
         <v>48</v>
-      </c>
-      <c r="G335" t="s">
-        <v>49</v>
       </c>
       <c r="H335">
         <v>204</v>
       </c>
       <c r="I335" t="s">
+        <v>52</v>
+      </c>
+      <c r="J335" t="s">
         <v>53</v>
-      </c>
-      <c r="J335" t="s">
-        <v>54</v>
       </c>
       <c r="M335" t="s">
         <v>32</v>
@@ -19322,7 +19324,7 @@
         <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D336" t="s">
         <v>23</v>
@@ -19331,19 +19333,19 @@
         <v>24</v>
       </c>
       <c r="F336" t="s">
+        <v>47</v>
+      </c>
+      <c r="G336" t="s">
         <v>48</v>
-      </c>
-      <c r="G336" t="s">
-        <v>49</v>
       </c>
       <c r="H336">
         <v>204</v>
       </c>
       <c r="I336" t="s">
+        <v>52</v>
+      </c>
+      <c r="J336" t="s">
         <v>53</v>
-      </c>
-      <c r="J336" t="s">
-        <v>54</v>
       </c>
       <c r="M336" t="s">
         <v>26</v>
@@ -19381,7 +19383,7 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D337" t="s">
         <v>23</v>
@@ -19390,19 +19392,19 @@
         <v>24</v>
       </c>
       <c r="F337" t="s">
+        <v>47</v>
+      </c>
+      <c r="G337" t="s">
         <v>48</v>
-      </c>
-      <c r="G337" t="s">
-        <v>49</v>
       </c>
       <c r="H337">
         <v>204</v>
       </c>
       <c r="I337" t="s">
+        <v>52</v>
+      </c>
+      <c r="J337" t="s">
         <v>53</v>
-      </c>
-      <c r="J337" t="s">
-        <v>54</v>
       </c>
       <c r="M337" t="s">
         <v>26</v>
@@ -19440,7 +19442,7 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D338" t="s">
         <v>23</v>
@@ -19449,19 +19451,19 @@
         <v>24</v>
       </c>
       <c r="F338" t="s">
+        <v>47</v>
+      </c>
+      <c r="G338" t="s">
         <v>48</v>
-      </c>
-      <c r="G338" t="s">
-        <v>49</v>
       </c>
       <c r="H338">
         <v>208</v>
       </c>
       <c r="I338" t="s">
+        <v>54</v>
+      </c>
+      <c r="J338" t="s">
         <v>55</v>
-      </c>
-      <c r="J338" t="s">
-        <v>56</v>
       </c>
       <c r="M338" t="s">
         <v>32</v>
@@ -19499,7 +19501,7 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D339" t="s">
         <v>23</v>
@@ -19508,19 +19510,19 @@
         <v>24</v>
       </c>
       <c r="F339" t="s">
+        <v>47</v>
+      </c>
+      <c r="G339" t="s">
         <v>48</v>
-      </c>
-      <c r="G339" t="s">
-        <v>49</v>
       </c>
       <c r="H339">
         <v>208</v>
       </c>
       <c r="I339" t="s">
+        <v>54</v>
+      </c>
+      <c r="J339" t="s">
         <v>55</v>
-      </c>
-      <c r="J339" t="s">
-        <v>56</v>
       </c>
       <c r="M339" t="s">
         <v>26</v>
@@ -19558,7 +19560,7 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D340" t="s">
         <v>23</v>
@@ -19567,19 +19569,19 @@
         <v>24</v>
       </c>
       <c r="F340" t="s">
+        <v>47</v>
+      </c>
+      <c r="G340" t="s">
         <v>48</v>
-      </c>
-      <c r="G340" t="s">
-        <v>49</v>
       </c>
       <c r="H340">
         <v>208</v>
       </c>
       <c r="I340" t="s">
+        <v>54</v>
+      </c>
+      <c r="J340" t="s">
         <v>55</v>
-      </c>
-      <c r="J340" t="s">
-        <v>56</v>
       </c>
       <c r="M340" t="s">
         <v>26</v>
@@ -19617,7 +19619,7 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D341" t="s">
         <v>23</v>
@@ -19626,19 +19628,19 @@
         <v>24</v>
       </c>
       <c r="F341" t="s">
+        <v>49</v>
+      </c>
+      <c r="G341" t="s">
         <v>50</v>
-      </c>
-      <c r="G341" t="s">
-        <v>51</v>
       </c>
       <c r="H341">
         <v>303</v>
       </c>
       <c r="I341" t="s">
+        <v>56</v>
+      </c>
+      <c r="J341" t="s">
         <v>57</v>
-      </c>
-      <c r="J341" t="s">
-        <v>58</v>
       </c>
       <c r="M341" t="s">
         <v>32</v>
@@ -19676,7 +19678,7 @@
         <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D342" t="s">
         <v>23</v>
@@ -19685,19 +19687,19 @@
         <v>24</v>
       </c>
       <c r="F342" t="s">
+        <v>49</v>
+      </c>
+      <c r="G342" t="s">
         <v>50</v>
-      </c>
-      <c r="G342" t="s">
-        <v>51</v>
       </c>
       <c r="H342">
         <v>303</v>
       </c>
       <c r="I342" t="s">
+        <v>56</v>
+      </c>
+      <c r="J342" t="s">
         <v>57</v>
-      </c>
-      <c r="J342" t="s">
-        <v>58</v>
       </c>
       <c r="M342" t="s">
         <v>26</v>
@@ -19735,7 +19737,7 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D343" t="s">
         <v>23</v>
@@ -19744,19 +19746,19 @@
         <v>24</v>
       </c>
       <c r="F343" t="s">
+        <v>49</v>
+      </c>
+      <c r="G343" t="s">
         <v>50</v>
-      </c>
-      <c r="G343" t="s">
-        <v>51</v>
       </c>
       <c r="H343">
         <v>303</v>
       </c>
       <c r="I343" t="s">
+        <v>56</v>
+      </c>
+      <c r="J343" t="s">
         <v>57</v>
-      </c>
-      <c r="J343" t="s">
-        <v>58</v>
       </c>
       <c r="M343" t="s">
         <v>26</v>
@@ -19794,7 +19796,7 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D344" t="s">
         <v>23</v>
@@ -19803,19 +19805,19 @@
         <v>24</v>
       </c>
       <c r="F344" t="s">
+        <v>49</v>
+      </c>
+      <c r="G344" t="s">
         <v>50</v>
-      </c>
-      <c r="G344" t="s">
-        <v>51</v>
       </c>
       <c r="H344">
         <v>310</v>
       </c>
       <c r="I344" t="s">
+        <v>58</v>
+      </c>
+      <c r="J344" t="s">
         <v>59</v>
-      </c>
-      <c r="J344" t="s">
-        <v>60</v>
       </c>
       <c r="M344" t="s">
         <v>32</v>
@@ -19853,7 +19855,7 @@
         <v>21</v>
       </c>
       <c r="C345" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D345" t="s">
         <v>23</v>
@@ -19862,19 +19864,19 @@
         <v>24</v>
       </c>
       <c r="F345" t="s">
+        <v>49</v>
+      </c>
+      <c r="G345" t="s">
         <v>50</v>
-      </c>
-      <c r="G345" t="s">
-        <v>51</v>
       </c>
       <c r="H345">
         <v>310</v>
       </c>
       <c r="I345" t="s">
+        <v>58</v>
+      </c>
+      <c r="J345" t="s">
         <v>59</v>
-      </c>
-      <c r="J345" t="s">
-        <v>60</v>
       </c>
       <c r="M345" t="s">
         <v>26</v>
@@ -19912,7 +19914,7 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D346" t="s">
         <v>23</v>
@@ -19921,19 +19923,19 @@
         <v>24</v>
       </c>
       <c r="F346" t="s">
+        <v>49</v>
+      </c>
+      <c r="G346" t="s">
         <v>50</v>
-      </c>
-      <c r="G346" t="s">
-        <v>51</v>
       </c>
       <c r="H346">
         <v>310</v>
       </c>
       <c r="I346" t="s">
+        <v>58</v>
+      </c>
+      <c r="J346" t="s">
         <v>59</v>
-      </c>
-      <c r="J346" t="s">
-        <v>60</v>
       </c>
       <c r="M346" t="s">
         <v>26</v>
@@ -19971,7 +19973,7 @@
         <v>21</v>
       </c>
       <c r="C347" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D347" t="s">
         <v>23</v>
@@ -19980,19 +19982,19 @@
         <v>24</v>
       </c>
       <c r="F347" t="s">
+        <v>49</v>
+      </c>
+      <c r="G347" t="s">
         <v>50</v>
-      </c>
-      <c r="G347" t="s">
-        <v>51</v>
       </c>
       <c r="H347">
         <v>317</v>
       </c>
       <c r="I347" t="s">
+        <v>60</v>
+      </c>
+      <c r="J347" t="s">
         <v>61</v>
-      </c>
-      <c r="J347" t="s">
-        <v>62</v>
       </c>
       <c r="M347" t="s">
         <v>32</v>
@@ -20030,7 +20032,7 @@
         <v>21</v>
       </c>
       <c r="C348" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D348" t="s">
         <v>23</v>
@@ -20039,19 +20041,19 @@
         <v>24</v>
       </c>
       <c r="F348" t="s">
+        <v>49</v>
+      </c>
+      <c r="G348" t="s">
         <v>50</v>
-      </c>
-      <c r="G348" t="s">
-        <v>51</v>
       </c>
       <c r="H348">
         <v>317</v>
       </c>
       <c r="I348" t="s">
+        <v>60</v>
+      </c>
+      <c r="J348" t="s">
         <v>61</v>
-      </c>
-      <c r="J348" t="s">
-        <v>62</v>
       </c>
       <c r="M348" t="s">
         <v>26</v>
@@ -20089,7 +20091,7 @@
         <v>21</v>
       </c>
       <c r="C349" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D349" t="s">
         <v>23</v>
@@ -20098,19 +20100,19 @@
         <v>24</v>
       </c>
       <c r="F349" t="s">
+        <v>49</v>
+      </c>
+      <c r="G349" t="s">
         <v>50</v>
-      </c>
-      <c r="G349" t="s">
-        <v>51</v>
       </c>
       <c r="H349">
         <v>317</v>
       </c>
       <c r="I349" t="s">
+        <v>60</v>
+      </c>
+      <c r="J349" t="s">
         <v>61</v>
-      </c>
-      <c r="J349" t="s">
-        <v>62</v>
       </c>
       <c r="M349" t="s">
         <v>26</v>
@@ -20148,7 +20150,7 @@
         <v>21</v>
       </c>
       <c r="C350" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D350" t="s">
         <v>23</v>
@@ -20157,19 +20159,19 @@
         <v>24</v>
       </c>
       <c r="F350" t="s">
+        <v>39</v>
+      </c>
+      <c r="G350" t="s">
         <v>40</v>
-      </c>
-      <c r="G350" t="s">
-        <v>41</v>
       </c>
       <c r="H350">
         <v>335</v>
       </c>
       <c r="I350" t="s">
+        <v>62</v>
+      </c>
+      <c r="J350" t="s">
         <v>63</v>
-      </c>
-      <c r="J350" t="s">
-        <v>64</v>
       </c>
       <c r="M350" t="s">
         <v>32</v>
@@ -20207,7 +20209,7 @@
         <v>21</v>
       </c>
       <c r="C351" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D351" t="s">
         <v>23</v>
@@ -20216,19 +20218,19 @@
         <v>24</v>
       </c>
       <c r="F351" t="s">
+        <v>39</v>
+      </c>
+      <c r="G351" t="s">
         <v>40</v>
-      </c>
-      <c r="G351" t="s">
-        <v>41</v>
       </c>
       <c r="H351">
         <v>335</v>
       </c>
       <c r="I351" t="s">
+        <v>62</v>
+      </c>
+      <c r="J351" t="s">
         <v>63</v>
-      </c>
-      <c r="J351" t="s">
-        <v>64</v>
       </c>
       <c r="M351" t="s">
         <v>26</v>
@@ -20266,7 +20268,7 @@
         <v>21</v>
       </c>
       <c r="C352" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D352" t="s">
         <v>23</v>
@@ -20275,19 +20277,19 @@
         <v>24</v>
       </c>
       <c r="F352" t="s">
+        <v>39</v>
+      </c>
+      <c r="G352" t="s">
         <v>40</v>
-      </c>
-      <c r="G352" t="s">
-        <v>41</v>
       </c>
       <c r="H352">
         <v>335</v>
       </c>
       <c r="I352" t="s">
+        <v>62</v>
+      </c>
+      <c r="J352" t="s">
         <v>63</v>
-      </c>
-      <c r="J352" t="s">
-        <v>64</v>
       </c>
       <c r="M352" t="s">
         <v>26</v>
@@ -20325,7 +20327,7 @@
         <v>21</v>
       </c>
       <c r="C353" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D353" t="s">
         <v>23</v>
@@ -20343,10 +20345,10 @@
         <v>342</v>
       </c>
       <c r="I353" t="s">
+        <v>64</v>
+      </c>
+      <c r="J353" t="s">
         <v>65</v>
-      </c>
-      <c r="J353" t="s">
-        <v>66</v>
       </c>
       <c r="M353" t="s">
         <v>32</v>
@@ -20384,7 +20386,7 @@
         <v>21</v>
       </c>
       <c r="C354" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D354" t="s">
         <v>23</v>
@@ -20402,10 +20404,10 @@
         <v>342</v>
       </c>
       <c r="I354" t="s">
+        <v>64</v>
+      </c>
+      <c r="J354" t="s">
         <v>65</v>
-      </c>
-      <c r="J354" t="s">
-        <v>66</v>
       </c>
       <c r="M354" t="s">
         <v>26</v>
@@ -20443,7 +20445,7 @@
         <v>21</v>
       </c>
       <c r="C355" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D355" t="s">
         <v>23</v>
@@ -20461,10 +20463,10 @@
         <v>342</v>
       </c>
       <c r="I355" t="s">
+        <v>64</v>
+      </c>
+      <c r="J355" t="s">
         <v>65</v>
-      </c>
-      <c r="J355" t="s">
-        <v>66</v>
       </c>
       <c r="M355" t="s">
         <v>26</v>
@@ -20502,7 +20504,7 @@
         <v>21</v>
       </c>
       <c r="C356" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D356" t="s">
         <v>23</v>
@@ -20520,10 +20522,10 @@
         <v>390</v>
       </c>
       <c r="I356" t="s">
+        <v>66</v>
+      </c>
+      <c r="J356" t="s">
         <v>67</v>
-      </c>
-      <c r="J356" t="s">
-        <v>68</v>
       </c>
       <c r="M356" t="s">
         <v>32</v>
@@ -20561,7 +20563,7 @@
         <v>21</v>
       </c>
       <c r="C357" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D357" t="s">
         <v>23</v>
@@ -20579,10 +20581,10 @@
         <v>390</v>
       </c>
       <c r="I357" t="s">
+        <v>66</v>
+      </c>
+      <c r="J357" t="s">
         <v>67</v>
-      </c>
-      <c r="J357" t="s">
-        <v>68</v>
       </c>
       <c r="M357" t="s">
         <v>26</v>
@@ -20620,7 +20622,7 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D358" t="s">
         <v>23</v>
@@ -20638,10 +20640,10 @@
         <v>390</v>
       </c>
       <c r="I358" t="s">
+        <v>66</v>
+      </c>
+      <c r="J358" t="s">
         <v>67</v>
-      </c>
-      <c r="J358" t="s">
-        <v>68</v>
       </c>
       <c r="M358" t="s">
         <v>26</v>
@@ -20679,7 +20681,7 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D359" t="s">
         <v>23</v>
@@ -20691,16 +20693,16 @@
         <v>36</v>
       </c>
       <c r="G359" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H359">
         <v>812</v>
       </c>
       <c r="I359" t="s">
+        <v>68</v>
+      </c>
+      <c r="J359" t="s">
         <v>69</v>
-      </c>
-      <c r="J359" t="s">
-        <v>70</v>
       </c>
       <c r="M359" t="s">
         <v>32</v>
@@ -20738,7 +20740,7 @@
         <v>21</v>
       </c>
       <c r="C360" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D360" t="s">
         <v>23</v>
@@ -20750,16 +20752,16 @@
         <v>36</v>
       </c>
       <c r="G360" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H360">
         <v>812</v>
       </c>
       <c r="I360" t="s">
+        <v>68</v>
+      </c>
+      <c r="J360" t="s">
         <v>69</v>
-      </c>
-      <c r="J360" t="s">
-        <v>70</v>
       </c>
       <c r="M360" t="s">
         <v>26</v>
@@ -20797,7 +20799,7 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D361" t="s">
         <v>23</v>
@@ -20809,16 +20811,16 @@
         <v>36</v>
       </c>
       <c r="G361" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H361">
         <v>812</v>
       </c>
       <c r="I361" t="s">
+        <v>68</v>
+      </c>
+      <c r="J361" t="s">
         <v>69</v>
-      </c>
-      <c r="J361" t="s">
-        <v>70</v>
       </c>
       <c r="M361" t="s">
         <v>26</v>
@@ -20856,7 +20858,7 @@
         <v>21</v>
       </c>
       <c r="C362" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D362" t="s">
         <v>23</v>
@@ -20865,19 +20867,19 @@
         <v>24</v>
       </c>
       <c r="F362" t="s">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
         <v>38</v>
-      </c>
-      <c r="G362" t="s">
-        <v>39</v>
       </c>
       <c r="H362">
         <v>830</v>
       </c>
       <c r="I362" t="s">
+        <v>70</v>
+      </c>
+      <c r="J362" t="s">
         <v>71</v>
-      </c>
-      <c r="J362" t="s">
-        <v>72</v>
       </c>
       <c r="M362" t="s">
         <v>32</v>
@@ -20915,7 +20917,7 @@
         <v>21</v>
       </c>
       <c r="C363" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D363" t="s">
         <v>23</v>
@@ -20924,19 +20926,19 @@
         <v>24</v>
       </c>
       <c r="F363" t="s">
+        <v>37</v>
+      </c>
+      <c r="G363" t="s">
         <v>38</v>
-      </c>
-      <c r="G363" t="s">
-        <v>39</v>
       </c>
       <c r="H363">
         <v>830</v>
       </c>
       <c r="I363" t="s">
+        <v>70</v>
+      </c>
+      <c r="J363" t="s">
         <v>71</v>
-      </c>
-      <c r="J363" t="s">
-        <v>72</v>
       </c>
       <c r="M363" t="s">
         <v>26</v>
@@ -20974,7 +20976,7 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D364" t="s">
         <v>23</v>
@@ -20983,19 +20985,19 @@
         <v>24</v>
       </c>
       <c r="F364" t="s">
+        <v>37</v>
+      </c>
+      <c r="G364" t="s">
         <v>38</v>
-      </c>
-      <c r="G364" t="s">
-        <v>39</v>
       </c>
       <c r="H364">
         <v>830</v>
       </c>
       <c r="I364" t="s">
+        <v>70</v>
+      </c>
+      <c r="J364" t="s">
         <v>71</v>
-      </c>
-      <c r="J364" t="s">
-        <v>72</v>
       </c>
       <c r="M364" t="s">
         <v>26</v>
@@ -21033,7 +21035,7 @@
         <v>21</v>
       </c>
       <c r="C365" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D365" t="s">
         <v>23</v>
@@ -21042,19 +21044,19 @@
         <v>24</v>
       </c>
       <c r="F365" t="s">
+        <v>43</v>
+      </c>
+      <c r="G365" t="s">
         <v>44</v>
-      </c>
-      <c r="G365" t="s">
-        <v>45</v>
       </c>
       <c r="H365">
         <v>870</v>
       </c>
       <c r="I365" t="s">
+        <v>72</v>
+      </c>
+      <c r="J365" t="s">
         <v>73</v>
-      </c>
-      <c r="J365" t="s">
-        <v>74</v>
       </c>
       <c r="M365" t="s">
         <v>32</v>
@@ -21092,7 +21094,7 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D366" t="s">
         <v>23</v>
@@ -21101,19 +21103,19 @@
         <v>24</v>
       </c>
       <c r="F366" t="s">
+        <v>43</v>
+      </c>
+      <c r="G366" t="s">
         <v>44</v>
-      </c>
-      <c r="G366" t="s">
-        <v>45</v>
       </c>
       <c r="H366">
         <v>870</v>
       </c>
       <c r="I366" t="s">
+        <v>72</v>
+      </c>
+      <c r="J366" t="s">
         <v>73</v>
-      </c>
-      <c r="J366" t="s">
-        <v>74</v>
       </c>
       <c r="M366" t="s">
         <v>26</v>
@@ -21151,7 +21153,7 @@
         <v>21</v>
       </c>
       <c r="C367" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D367" t="s">
         <v>23</v>
@@ -21160,19 +21162,19 @@
         <v>24</v>
       </c>
       <c r="F367" t="s">
+        <v>43</v>
+      </c>
+      <c r="G367" t="s">
         <v>44</v>
-      </c>
-      <c r="G367" t="s">
-        <v>45</v>
       </c>
       <c r="H367">
         <v>870</v>
       </c>
       <c r="I367" t="s">
+        <v>72</v>
+      </c>
+      <c r="J367" t="s">
         <v>73</v>
-      </c>
-      <c r="J367" t="s">
-        <v>74</v>
       </c>
       <c r="M367" t="s">
         <v>26</v>
@@ -21210,7 +21212,7 @@
         <v>21</v>
       </c>
       <c r="C368" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D368" t="s">
         <v>23</v>
@@ -21219,19 +21221,19 @@
         <v>24</v>
       </c>
       <c r="F368" t="s">
+        <v>41</v>
+      </c>
+      <c r="G368" t="s">
         <v>42</v>
-      </c>
-      <c r="G368" t="s">
-        <v>43</v>
       </c>
       <c r="H368">
         <v>881</v>
       </c>
       <c r="I368" t="s">
+        <v>74</v>
+      </c>
+      <c r="J368" t="s">
         <v>75</v>
-      </c>
-      <c r="J368" t="s">
-        <v>76</v>
       </c>
       <c r="M368" t="s">
         <v>32</v>
@@ -21269,7 +21271,7 @@
         <v>21</v>
       </c>
       <c r="C369" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D369" t="s">
         <v>23</v>
@@ -21278,19 +21280,19 @@
         <v>24</v>
       </c>
       <c r="F369" t="s">
+        <v>41</v>
+      </c>
+      <c r="G369" t="s">
         <v>42</v>
-      </c>
-      <c r="G369" t="s">
-        <v>43</v>
       </c>
       <c r="H369">
         <v>881</v>
       </c>
       <c r="I369" t="s">
+        <v>74</v>
+      </c>
+      <c r="J369" t="s">
         <v>75</v>
-      </c>
-      <c r="J369" t="s">
-        <v>76</v>
       </c>
       <c r="M369" t="s">
         <v>26</v>
@@ -21328,7 +21330,7 @@
         <v>21</v>
       </c>
       <c r="C370" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D370" t="s">
         <v>23</v>
@@ -21337,19 +21339,19 @@
         <v>24</v>
       </c>
       <c r="F370" t="s">
+        <v>41</v>
+      </c>
+      <c r="G370" t="s">
         <v>42</v>
-      </c>
-      <c r="G370" t="s">
-        <v>43</v>
       </c>
       <c r="H370">
         <v>881</v>
       </c>
       <c r="I370" t="s">
+        <v>74</v>
+      </c>
+      <c r="J370" t="s">
         <v>75</v>
-      </c>
-      <c r="J370" t="s">
-        <v>76</v>
       </c>
       <c r="M370" t="s">
         <v>26</v>
@@ -21387,7 +21389,7 @@
         <v>21</v>
       </c>
       <c r="C371" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D371" t="s">
         <v>23</v>
@@ -21405,10 +21407,10 @@
         <v>895</v>
       </c>
       <c r="I371" t="s">
+        <v>76</v>
+      </c>
+      <c r="J371" t="s">
         <v>77</v>
-      </c>
-      <c r="J371" t="s">
-        <v>78</v>
       </c>
       <c r="M371" t="s">
         <v>32</v>
@@ -21446,7 +21448,7 @@
         <v>21</v>
       </c>
       <c r="C372" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D372" t="s">
         <v>23</v>
@@ -21464,10 +21466,10 @@
         <v>895</v>
       </c>
       <c r="I372" t="s">
+        <v>76</v>
+      </c>
+      <c r="J372" t="s">
         <v>77</v>
-      </c>
-      <c r="J372" t="s">
-        <v>78</v>
       </c>
       <c r="M372" t="s">
         <v>26</v>
@@ -21505,7 +21507,7 @@
         <v>21</v>
       </c>
       <c r="C373" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D373" t="s">
         <v>23</v>
@@ -21523,10 +21525,10 @@
         <v>895</v>
       </c>
       <c r="I373" t="s">
+        <v>76</v>
+      </c>
+      <c r="J373" t="s">
         <v>77</v>
-      </c>
-      <c r="J373" t="s">
-        <v>78</v>
       </c>
       <c r="M373" t="s">
         <v>26</v>
@@ -21564,7 +21566,7 @@
         <v>21</v>
       </c>
       <c r="C374" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D374" t="s">
         <v>23</v>
@@ -21573,19 +21575,19 @@
         <v>24</v>
       </c>
       <c r="F374" t="s">
+        <v>45</v>
+      </c>
+      <c r="G374" t="s">
         <v>46</v>
-      </c>
-      <c r="G374" t="s">
-        <v>47</v>
       </c>
       <c r="H374">
         <v>933</v>
       </c>
       <c r="I374" t="s">
+        <v>78</v>
+      </c>
+      <c r="J374" t="s">
         <v>79</v>
-      </c>
-      <c r="J374" t="s">
-        <v>80</v>
       </c>
       <c r="M374" t="s">
         <v>32</v>
@@ -21623,7 +21625,7 @@
         <v>21</v>
       </c>
       <c r="C375" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D375" t="s">
         <v>23</v>
@@ -21632,19 +21634,19 @@
         <v>24</v>
       </c>
       <c r="F375" t="s">
+        <v>45</v>
+      </c>
+      <c r="G375" t="s">
         <v>46</v>
-      </c>
-      <c r="G375" t="s">
-        <v>47</v>
       </c>
       <c r="H375">
         <v>933</v>
       </c>
       <c r="I375" t="s">
+        <v>78</v>
+      </c>
+      <c r="J375" t="s">
         <v>79</v>
-      </c>
-      <c r="J375" t="s">
-        <v>80</v>
       </c>
       <c r="M375" t="s">
         <v>26</v>
@@ -21682,7 +21684,7 @@
         <v>21</v>
       </c>
       <c r="C376" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D376" t="s">
         <v>23</v>
@@ -21691,19 +21693,19 @@
         <v>24</v>
       </c>
       <c r="F376" t="s">
+        <v>45</v>
+      </c>
+      <c r="G376" t="s">
         <v>46</v>
-      </c>
-      <c r="G376" t="s">
-        <v>47</v>
       </c>
       <c r="H376">
         <v>933</v>
       </c>
       <c r="I376" t="s">
+        <v>78</v>
+      </c>
+      <c r="J376" t="s">
         <v>79</v>
-      </c>
-      <c r="J376" t="s">
-        <v>80</v>
       </c>
       <c r="M376" t="s">
         <v>26</v>
@@ -21741,7 +21743,7 @@
         <v>21</v>
       </c>
       <c r="C377" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D377" t="s">
         <v>23</v>
@@ -21756,10 +21758,10 @@
         <v>31</v>
       </c>
       <c r="K377" t="s">
+        <v>81</v>
+      </c>
+      <c r="L377" t="s">
         <v>82</v>
-      </c>
-      <c r="L377" t="s">
-        <v>83</v>
       </c>
       <c r="M377" t="s">
         <v>26</v>
